--- a/excel/finished/wg8#高炉/8高炉操作管理报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉操作管理报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC4E5FA-472B-4F8E-BF41-91FDFE9940DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCAF6C-9654-46F6-8532-E48B74850584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="226">
   <si>
     <t>编号：JAAZ0002002A</t>
   </si>
@@ -510,10 +510,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Ol</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -539,10 +535,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Os</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>批次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -871,6 +863,18 @@
   </si>
   <si>
     <t>{净焦.批次}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八号高炉操作管理日记</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ol/Os</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1626,7 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2258,6 +2262,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2282,12 +2289,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2312,97 +2331,85 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2686,8 +2693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DJ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:BJ3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AT31" sqref="AT31:AU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2809,7 @@
       <c r="L2" s="156"/>
       <c r="M2" s="16"/>
       <c r="N2" s="160" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="O2" s="160"/>
       <c r="P2" s="160"/>
@@ -2865,7 +2872,7 @@
       <c r="BS2" s="160"/>
       <c r="BT2" s="160"/>
       <c r="BU2" s="159" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BV2" s="160"/>
       <c r="BW2" s="160"/>
@@ -4496,7 +4503,7 @@
     <row r="13" spans="1:86" s="61" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="B13" s="150" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" s="136"/>
       <c r="D13" s="136"/>
@@ -6053,7 +6060,7 @@
       <c r="I23" s="145"/>
       <c r="J23" s="146"/>
       <c r="K23" s="144" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L23" s="146"/>
       <c r="M23" s="144"/>
@@ -6139,7 +6146,7 @@
       <c r="C24" s="139"/>
       <c r="D24" s="140"/>
       <c r="E24" s="138" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F24" s="139"/>
       <c r="G24" s="140"/>
@@ -6321,7 +6328,7 @@
       <c r="C26" s="204"/>
       <c r="D26" s="205"/>
       <c r="E26" s="138" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F26" s="139"/>
       <c r="G26" s="140"/>
@@ -6702,7 +6709,7 @@
       <c r="C30" s="122"/>
       <c r="D30" s="123"/>
       <c r="E30" s="124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="164"/>
       <c r="G30" s="125"/>
@@ -6761,7 +6768,7 @@
       </c>
       <c r="AI30" s="164"/>
       <c r="AJ30" s="166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK30" s="122"/>
       <c r="AL30" s="123"/>
@@ -6771,7 +6778,7 @@
       <c r="AN30" s="172"/>
       <c r="AO30" s="173"/>
       <c r="AP30" s="109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AQ30" s="127"/>
       <c r="AR30" s="127"/>
@@ -6784,16 +6791,16 @@
       <c r="AW30" s="122"/>
       <c r="AX30" s="123"/>
       <c r="AY30" s="109" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AZ30" s="110"/>
       <c r="BA30" s="109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BB30" s="111"/>
       <c r="BC30" s="25"/>
       <c r="BD30" s="187" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BE30" s="172"/>
       <c r="BF30" s="172"/>
@@ -6822,7 +6829,7 @@
       <c r="CC30" s="172"/>
       <c r="CD30" s="188"/>
       <c r="CE30" s="82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CF30" s="83"/>
       <c r="CG30" s="83"/>
@@ -6862,12 +6869,12 @@
       <c r="C31" s="168"/>
       <c r="D31" s="169"/>
       <c r="E31" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="96"/>
       <c r="G31" s="97"/>
       <c r="H31" s="98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I31" s="99"/>
       <c r="J31" s="100"/>
@@ -6907,30 +6914,30 @@
       </c>
       <c r="AQ31" s="87"/>
       <c r="AR31" s="85" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="AS31" s="87"/>
       <c r="AT31" s="85" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="AU31" s="86"/>
       <c r="AV31" s="167"/>
       <c r="AW31" s="168"/>
       <c r="AX31" s="169"/>
       <c r="AY31" s="85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AZ31" s="87"/>
       <c r="BA31" s="85"/>
       <c r="BB31" s="86"/>
       <c r="BC31" s="25"/>
       <c r="BD31" s="177" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BE31" s="178"/>
       <c r="BF31" s="178"/>
       <c r="BG31" s="183" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BH31" s="183"/>
       <c r="BI31" s="183"/>
@@ -6957,13 +6964,13 @@
       <c r="CD31" s="184"/>
       <c r="CE31" s="79"/>
       <c r="CF31" s="80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG31" s="80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH31" s="80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI31" s="80"/>
       <c r="CJ31" s="80"/>
@@ -7000,7 +7007,7 @@
       <c r="C32" s="168"/>
       <c r="D32" s="169"/>
       <c r="E32" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F32" s="96"/>
       <c r="G32" s="97"/>
@@ -7036,7 +7043,7 @@
       <c r="AK32" s="168"/>
       <c r="AL32" s="169"/>
       <c r="AM32" s="85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AN32" s="105"/>
       <c r="AO32" s="87"/>
@@ -7060,7 +7067,7 @@
       <c r="BE32" s="178"/>
       <c r="BF32" s="178"/>
       <c r="BG32" s="183" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BH32" s="183"/>
       <c r="BI32" s="183"/>
@@ -7087,13 +7094,13 @@
       <c r="CD32" s="184"/>
       <c r="CE32" s="79"/>
       <c r="CF32" s="80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG32" s="80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH32" s="80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI32" s="80"/>
       <c r="CJ32" s="80"/>
@@ -7130,7 +7137,7 @@
       <c r="C33" s="168"/>
       <c r="D33" s="169"/>
       <c r="E33" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="96"/>
       <c r="G33" s="97"/>
@@ -7188,7 +7195,7 @@
       <c r="BE33" s="178"/>
       <c r="BF33" s="178"/>
       <c r="BG33" s="181" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BH33" s="181"/>
       <c r="BI33" s="181"/>
@@ -7215,13 +7222,13 @@
       <c r="CD33" s="186"/>
       <c r="CE33" s="70"/>
       <c r="CF33" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG33" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH33" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI33" s="71"/>
       <c r="CJ33" s="71"/>
@@ -7258,7 +7265,7 @@
       <c r="C34" s="168"/>
       <c r="D34" s="169"/>
       <c r="E34" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="96"/>
       <c r="G34" s="97"/>
@@ -7311,12 +7318,12 @@
       <c r="BB34" s="86"/>
       <c r="BC34" s="25"/>
       <c r="BD34" s="177" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BE34" s="178"/>
       <c r="BF34" s="178"/>
       <c r="BG34" s="182" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BH34" s="182"/>
       <c r="BI34" s="182"/>
@@ -7343,13 +7350,13 @@
       <c r="CD34" s="185"/>
       <c r="CE34" s="76"/>
       <c r="CF34" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG34" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH34" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI34" s="77"/>
       <c r="CJ34" s="77"/>
@@ -7386,7 +7393,7 @@
       <c r="C35" s="168"/>
       <c r="D35" s="169"/>
       <c r="E35" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="96"/>
       <c r="G35" s="97"/>
@@ -7444,7 +7451,7 @@
       <c r="BE35" s="178"/>
       <c r="BF35" s="178"/>
       <c r="BG35" s="181" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BH35" s="181"/>
       <c r="BI35" s="181"/>
@@ -7471,13 +7478,13 @@
       <c r="CD35" s="186"/>
       <c r="CE35" s="70"/>
       <c r="CF35" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG35" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH35" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI35" s="71"/>
       <c r="CJ35" s="71"/>
@@ -7514,7 +7521,7 @@
       <c r="C36" s="168"/>
       <c r="D36" s="169"/>
       <c r="E36" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="96"/>
       <c r="G36" s="97"/>
@@ -7572,7 +7579,7 @@
       <c r="BE36" s="178"/>
       <c r="BF36" s="178"/>
       <c r="BG36" s="181" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BH36" s="181"/>
       <c r="BI36" s="181"/>
@@ -7599,13 +7606,13 @@
       <c r="CD36" s="186"/>
       <c r="CE36" s="70"/>
       <c r="CF36" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG36" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH36" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI36" s="71"/>
       <c r="CJ36" s="71"/>
@@ -7642,7 +7649,7 @@
       <c r="C37" s="168"/>
       <c r="D37" s="169"/>
       <c r="E37" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37" s="96"/>
       <c r="G37" s="97"/>
@@ -7700,7 +7707,7 @@
       <c r="BE37" s="178"/>
       <c r="BF37" s="178"/>
       <c r="BG37" s="182" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH37" s="182"/>
       <c r="BI37" s="182"/>
@@ -7727,13 +7734,13 @@
       <c r="CD37" s="185"/>
       <c r="CE37" s="76"/>
       <c r="CF37" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG37" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH37" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI37" s="77"/>
       <c r="CJ37" s="77"/>
@@ -7770,7 +7777,7 @@
       <c r="C38" s="168"/>
       <c r="D38" s="169"/>
       <c r="E38" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F38" s="96"/>
       <c r="G38" s="97"/>
@@ -7823,12 +7830,12 @@
       <c r="BB38" s="86"/>
       <c r="BC38" s="25"/>
       <c r="BD38" s="177" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BE38" s="178"/>
       <c r="BF38" s="178"/>
       <c r="BG38" s="181" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BH38" s="181"/>
       <c r="BI38" s="181"/>
@@ -7855,13 +7862,13 @@
       <c r="CD38" s="186"/>
       <c r="CE38" s="70"/>
       <c r="CF38" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG38" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH38" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI38" s="71"/>
       <c r="CJ38" s="71"/>
@@ -7898,7 +7905,7 @@
       <c r="C39" s="168"/>
       <c r="D39" s="169"/>
       <c r="E39" s="95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F39" s="96"/>
       <c r="G39" s="97"/>
@@ -7951,7 +7958,7 @@
       <c r="BB39" s="86"/>
       <c r="BC39" s="25"/>
       <c r="BD39" s="177" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BE39" s="178"/>
       <c r="BF39" s="178"/>
@@ -7981,13 +7988,13 @@
       <c r="CD39" s="186"/>
       <c r="CE39" s="70"/>
       <c r="CF39" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG39" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH39" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI39" s="71"/>
       <c r="CJ39" s="71"/>
@@ -8024,7 +8031,7 @@
       <c r="C40" s="168"/>
       <c r="D40" s="169"/>
       <c r="E40" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F40" s="96"/>
       <c r="G40" s="97"/>
@@ -8105,13 +8112,13 @@
       <c r="CD40" s="186"/>
       <c r="CE40" s="70"/>
       <c r="CF40" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG40" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH40" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI40" s="71"/>
       <c r="CJ40" s="71"/>
@@ -8148,7 +8155,7 @@
       <c r="C41" s="168"/>
       <c r="D41" s="169"/>
       <c r="E41" s="95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F41" s="96"/>
       <c r="G41" s="97"/>
@@ -8229,13 +8236,13 @@
       <c r="CD41" s="186"/>
       <c r="CE41" s="70"/>
       <c r="CF41" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG41" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH41" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI41" s="71"/>
       <c r="CJ41" s="71"/>
@@ -8272,7 +8279,7 @@
       <c r="C42" s="168"/>
       <c r="D42" s="169"/>
       <c r="E42" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42" s="96"/>
       <c r="G42" s="97"/>
@@ -8353,13 +8360,13 @@
       <c r="CD42" s="186"/>
       <c r="CE42" s="70"/>
       <c r="CF42" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG42" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH42" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI42" s="71"/>
       <c r="CJ42" s="71"/>
@@ -8396,7 +8403,7 @@
       <c r="C43" s="168"/>
       <c r="D43" s="169"/>
       <c r="E43" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F43" s="96"/>
       <c r="G43" s="97"/>
@@ -8477,13 +8484,13 @@
       <c r="CD43" s="186"/>
       <c r="CE43" s="70"/>
       <c r="CF43" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG43" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH43" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI43" s="71"/>
       <c r="CJ43" s="71"/>
@@ -8520,7 +8527,7 @@
       <c r="C44" s="168"/>
       <c r="D44" s="169"/>
       <c r="E44" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F44" s="96"/>
       <c r="G44" s="97"/>
@@ -8601,13 +8608,13 @@
       <c r="CD44" s="186"/>
       <c r="CE44" s="70"/>
       <c r="CF44" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG44" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH44" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI44" s="71"/>
       <c r="CJ44" s="71"/>
@@ -8644,7 +8651,7 @@
       <c r="C45" s="168"/>
       <c r="D45" s="169"/>
       <c r="E45" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="96"/>
       <c r="G45" s="97"/>
@@ -8725,13 +8732,13 @@
       <c r="CD45" s="186"/>
       <c r="CE45" s="70"/>
       <c r="CF45" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG45" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH45" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI45" s="71"/>
       <c r="CJ45" s="71"/>
@@ -8768,7 +8775,7 @@
       <c r="C46" s="168"/>
       <c r="D46" s="169"/>
       <c r="E46" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" s="96"/>
       <c r="G46" s="97"/>
@@ -8849,13 +8856,13 @@
       <c r="CD46" s="186"/>
       <c r="CE46" s="70"/>
       <c r="CF46" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG46" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH46" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI46" s="71"/>
       <c r="CJ46" s="71"/>
@@ -8892,7 +8899,7 @@
       <c r="C47" s="168"/>
       <c r="D47" s="169"/>
       <c r="E47" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" s="96"/>
       <c r="G47" s="97"/>
@@ -8973,13 +8980,13 @@
       <c r="CD47" s="186"/>
       <c r="CE47" s="70"/>
       <c r="CF47" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG47" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH47" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI47" s="71"/>
       <c r="CJ47" s="71"/>
@@ -9016,7 +9023,7 @@
       <c r="C48" s="168"/>
       <c r="D48" s="169"/>
       <c r="E48" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="96"/>
       <c r="G48" s="97"/>
@@ -9097,13 +9104,13 @@
       <c r="CD48" s="186"/>
       <c r="CE48" s="70"/>
       <c r="CF48" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG48" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH48" s="71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI48" s="71"/>
       <c r="CJ48" s="71"/>
@@ -9140,7 +9147,7 @@
       <c r="C49" s="168"/>
       <c r="D49" s="169"/>
       <c r="E49" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49" s="96"/>
       <c r="G49" s="97"/>
@@ -9221,13 +9228,13 @@
       <c r="CD49" s="190"/>
       <c r="CE49" s="73"/>
       <c r="CF49" s="74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CG49" s="74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CH49" s="74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="CI49" s="74"/>
       <c r="CJ49" s="74"/>
@@ -9264,7 +9271,7 @@
       <c r="C50" s="168"/>
       <c r="D50" s="169"/>
       <c r="E50" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F50" s="96"/>
       <c r="G50" s="97"/>
@@ -9354,7 +9361,7 @@
       <c r="C51" s="168"/>
       <c r="D51" s="169"/>
       <c r="E51" s="95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F51" s="96"/>
       <c r="G51" s="97"/>
@@ -9444,7 +9451,7 @@
       <c r="C52" s="168"/>
       <c r="D52" s="169"/>
       <c r="E52" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F52" s="96"/>
       <c r="G52" s="97"/>
@@ -9534,7 +9541,7 @@
       <c r="C53" s="168"/>
       <c r="D53" s="169"/>
       <c r="E53" s="95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F53" s="96"/>
       <c r="G53" s="97"/>
@@ -9624,7 +9631,7 @@
       <c r="C54" s="102"/>
       <c r="D54" s="103"/>
       <c r="E54" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F54" s="96"/>
       <c r="G54" s="97"/>
@@ -9710,15 +9717,15 @@
     </row>
     <row r="55" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B55" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C55" s="113"/>
       <c r="D55" s="114"/>
       <c r="E55" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F55" s="96"/>
       <c r="G55" s="97"/>
@@ -9751,53 +9758,53 @@
       <c r="AH55" s="124"/>
       <c r="AI55" s="126"/>
       <c r="AJ55" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AK55" s="113"/>
       <c r="AL55" s="114"/>
       <c r="AM55" s="109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN55" s="127" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AO55" s="110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AP55" s="109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AQ55" s="110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AR55" s="109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AS55" s="110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AT55" s="109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AU55" s="111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AV55" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AW55" s="113"/>
       <c r="AX55" s="114"/>
       <c r="AY55" s="109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AZ55" s="110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BA55" s="109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BB55" s="111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BC55" s="23"/>
       <c r="BD55" s="23"/>
@@ -9834,13 +9841,13 @@
     </row>
     <row r="56" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B56" s="115"/>
       <c r="C56" s="116"/>
       <c r="D56" s="117"/>
       <c r="E56" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56" s="96"/>
       <c r="G56" s="97"/>
@@ -9876,46 +9883,46 @@
       <c r="AK56" s="116"/>
       <c r="AL56" s="117"/>
       <c r="AM56" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN56" s="105" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AO56" s="87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AP56" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AQ56" s="87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AR56" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AS56" s="87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AT56" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AU56" s="86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AV56" s="115"/>
       <c r="AW56" s="116"/>
       <c r="AX56" s="117"/>
       <c r="AY56" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AZ56" s="87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BA56" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BB56" s="86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BC56" s="23"/>
       <c r="BD56" s="23"/>
@@ -9952,13 +9959,13 @@
     </row>
     <row r="57" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B57" s="115"/>
       <c r="C57" s="116"/>
       <c r="D57" s="117"/>
       <c r="E57" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F57" s="96"/>
       <c r="G57" s="97"/>
@@ -10012,13 +10019,13 @@
     </row>
     <row r="58" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B58" s="115"/>
       <c r="C58" s="116"/>
       <c r="D58" s="117"/>
       <c r="E58" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F58" s="96"/>
       <c r="G58" s="97"/>
@@ -10072,13 +10079,13 @@
     </row>
     <row r="59" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B59" s="115"/>
       <c r="C59" s="116"/>
       <c r="D59" s="117"/>
       <c r="E59" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F59" s="96"/>
       <c r="G59" s="97"/>
@@ -10132,13 +10139,13 @@
     </row>
     <row r="60" spans="1:114" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B60" s="115"/>
       <c r="C60" s="116"/>
       <c r="D60" s="117"/>
       <c r="E60" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" s="96"/>
       <c r="G60" s="97"/>
@@ -10192,13 +10199,13 @@
     </row>
     <row r="61" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B61" s="115"/>
       <c r="C61" s="116"/>
       <c r="D61" s="117"/>
       <c r="E61" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F61" s="96"/>
       <c r="G61" s="97"/>
@@ -10252,13 +10259,13 @@
     </row>
     <row r="62" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B62" s="115"/>
       <c r="C62" s="116"/>
       <c r="D62" s="117"/>
       <c r="E62" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F62" s="96"/>
       <c r="G62" s="97"/>
@@ -10312,13 +10319,13 @@
     </row>
     <row r="63" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" s="115"/>
       <c r="C63" s="116"/>
       <c r="D63" s="117"/>
       <c r="E63" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F63" s="96"/>
       <c r="G63" s="97"/>
@@ -10372,13 +10379,13 @@
     </row>
     <row r="64" spans="1:114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B64" s="115"/>
       <c r="C64" s="116"/>
       <c r="D64" s="117"/>
       <c r="E64" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F64" s="96"/>
       <c r="G64" s="97"/>
@@ -10432,13 +10439,13 @@
     </row>
     <row r="65" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B65" s="115"/>
       <c r="C65" s="116"/>
       <c r="D65" s="117"/>
       <c r="E65" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F65" s="96"/>
       <c r="G65" s="97"/>
@@ -10492,13 +10499,13 @@
     </row>
     <row r="66" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B66" s="115"/>
       <c r="C66" s="116"/>
       <c r="D66" s="117"/>
       <c r="E66" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F66" s="96"/>
       <c r="G66" s="97"/>
@@ -10552,13 +10559,13 @@
     </row>
     <row r="67" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B67" s="115"/>
       <c r="C67" s="116"/>
       <c r="D67" s="117"/>
       <c r="E67" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F67" s="96"/>
       <c r="G67" s="97"/>
@@ -10612,13 +10619,13 @@
     </row>
     <row r="68" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B68" s="115"/>
       <c r="C68" s="116"/>
       <c r="D68" s="117"/>
       <c r="E68" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F68" s="96"/>
       <c r="G68" s="97"/>
@@ -10672,13 +10679,13 @@
     </row>
     <row r="69" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B69" s="115"/>
       <c r="C69" s="116"/>
       <c r="D69" s="117"/>
       <c r="E69" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" s="96"/>
       <c r="G69" s="97"/>
@@ -10732,13 +10739,13 @@
     </row>
     <row r="70" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B70" s="115"/>
       <c r="C70" s="116"/>
       <c r="D70" s="117"/>
       <c r="E70" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" s="96"/>
       <c r="G70" s="97"/>
@@ -10792,13 +10799,13 @@
     </row>
     <row r="71" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B71" s="115"/>
       <c r="C71" s="116"/>
       <c r="D71" s="117"/>
       <c r="E71" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F71" s="96"/>
       <c r="G71" s="97"/>
@@ -10852,13 +10859,13 @@
     </row>
     <row r="72" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B72" s="115"/>
       <c r="C72" s="116"/>
       <c r="D72" s="117"/>
       <c r="E72" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F72" s="96"/>
       <c r="G72" s="97"/>
@@ -10912,13 +10919,13 @@
     </row>
     <row r="73" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B73" s="115"/>
       <c r="C73" s="116"/>
       <c r="D73" s="117"/>
       <c r="E73" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F73" s="96"/>
       <c r="G73" s="97"/>
@@ -10972,13 +10979,13 @@
     </row>
     <row r="74" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B74" s="115"/>
       <c r="C74" s="116"/>
       <c r="D74" s="117"/>
       <c r="E74" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F74" s="96"/>
       <c r="G74" s="97"/>
@@ -11032,13 +11039,13 @@
     </row>
     <row r="75" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B75" s="115"/>
       <c r="C75" s="116"/>
       <c r="D75" s="117"/>
       <c r="E75" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F75" s="96"/>
       <c r="G75" s="97"/>
@@ -11092,13 +11099,13 @@
     </row>
     <row r="76" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B76" s="115"/>
       <c r="C76" s="116"/>
       <c r="D76" s="117"/>
       <c r="E76" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F76" s="96"/>
       <c r="G76" s="97"/>
@@ -11152,13 +11159,13 @@
     </row>
     <row r="77" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B77" s="115"/>
       <c r="C77" s="116"/>
       <c r="D77" s="117"/>
       <c r="E77" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F77" s="96"/>
       <c r="G77" s="97"/>
@@ -11212,13 +11219,13 @@
     </row>
     <row r="78" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B78" s="115"/>
       <c r="C78" s="116"/>
       <c r="D78" s="117"/>
       <c r="E78" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F78" s="96"/>
       <c r="G78" s="97"/>
@@ -11272,13 +11279,13 @@
     </row>
     <row r="79" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B79" s="115"/>
       <c r="C79" s="116"/>
       <c r="D79" s="117"/>
       <c r="E79" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F79" s="96"/>
       <c r="G79" s="97"/>
@@ -11332,13 +11339,13 @@
     </row>
     <row r="80" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B80" s="115"/>
       <c r="C80" s="116"/>
       <c r="D80" s="117"/>
       <c r="E80" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80" s="96"/>
       <c r="G80" s="97"/>
@@ -11392,13 +11399,13 @@
     </row>
     <row r="81" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B81" s="115"/>
       <c r="C81" s="116"/>
       <c r="D81" s="117"/>
       <c r="E81" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F81" s="96"/>
       <c r="G81" s="97"/>
@@ -11452,13 +11459,13 @@
     </row>
     <row r="82" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B82" s="115"/>
       <c r="C82" s="116"/>
       <c r="D82" s="117"/>
       <c r="E82" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F82" s="96"/>
       <c r="G82" s="97"/>
@@ -11512,13 +11519,13 @@
     </row>
     <row r="83" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B83" s="115"/>
       <c r="C83" s="116"/>
       <c r="D83" s="117"/>
       <c r="E83" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F83" s="96"/>
       <c r="G83" s="97"/>
@@ -11572,13 +11579,13 @@
     </row>
     <row r="84" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B84" s="115"/>
       <c r="C84" s="116"/>
       <c r="D84" s="117"/>
       <c r="E84" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F84" s="96"/>
       <c r="G84" s="97"/>
@@ -11632,13 +11639,13 @@
     </row>
     <row r="85" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B85" s="115"/>
       <c r="C85" s="116"/>
       <c r="D85" s="117"/>
       <c r="E85" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F85" s="96"/>
       <c r="G85" s="97"/>
@@ -11692,13 +11699,13 @@
     </row>
     <row r="86" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B86" s="115"/>
       <c r="C86" s="116"/>
       <c r="D86" s="117"/>
       <c r="E86" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F86" s="96"/>
       <c r="G86" s="97"/>
@@ -11752,13 +11759,13 @@
     </row>
     <row r="87" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B87" s="115"/>
       <c r="C87" s="116"/>
       <c r="D87" s="117"/>
       <c r="E87" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F87" s="96"/>
       <c r="G87" s="97"/>
@@ -11812,13 +11819,13 @@
     </row>
     <row r="88" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B88" s="115"/>
       <c r="C88" s="116"/>
       <c r="D88" s="117"/>
       <c r="E88" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F88" s="96"/>
       <c r="G88" s="97"/>
@@ -11872,13 +11879,13 @@
     </row>
     <row r="89" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B89" s="115"/>
       <c r="C89" s="116"/>
       <c r="D89" s="117"/>
       <c r="E89" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F89" s="96"/>
       <c r="G89" s="97"/>
@@ -11932,13 +11939,13 @@
     </row>
     <row r="90" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B90" s="115"/>
       <c r="C90" s="116"/>
       <c r="D90" s="117"/>
       <c r="E90" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F90" s="96"/>
       <c r="G90" s="97"/>
@@ -11992,13 +11999,13 @@
     </row>
     <row r="91" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B91" s="115"/>
       <c r="C91" s="116"/>
       <c r="D91" s="117"/>
       <c r="E91" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F91" s="96"/>
       <c r="G91" s="97"/>
@@ -12052,13 +12059,13 @@
     </row>
     <row r="92" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B92" s="115"/>
       <c r="C92" s="116"/>
       <c r="D92" s="117"/>
       <c r="E92" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F92" s="96"/>
       <c r="G92" s="97"/>
@@ -12112,13 +12119,13 @@
     </row>
     <row r="93" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B93" s="115"/>
       <c r="C93" s="116"/>
       <c r="D93" s="117"/>
       <c r="E93" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F93" s="96"/>
       <c r="G93" s="97"/>
@@ -12172,13 +12179,13 @@
     </row>
     <row r="94" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B94" s="115"/>
       <c r="C94" s="116"/>
       <c r="D94" s="117"/>
       <c r="E94" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F94" s="96"/>
       <c r="G94" s="97"/>
@@ -12232,13 +12239,13 @@
     </row>
     <row r="95" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B95" s="115"/>
       <c r="C95" s="116"/>
       <c r="D95" s="117"/>
       <c r="E95" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F95" s="96"/>
       <c r="G95" s="97"/>
@@ -12292,13 +12299,13 @@
     </row>
     <row r="96" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B96" s="115"/>
       <c r="C96" s="116"/>
       <c r="D96" s="117"/>
       <c r="E96" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F96" s="96"/>
       <c r="G96" s="97"/>
@@ -12352,13 +12359,13 @@
     </row>
     <row r="97" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B97" s="115"/>
       <c r="C97" s="116"/>
       <c r="D97" s="117"/>
       <c r="E97" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F97" s="96"/>
       <c r="G97" s="97"/>
@@ -12412,13 +12419,13 @@
     </row>
     <row r="98" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B98" s="115"/>
       <c r="C98" s="116"/>
       <c r="D98" s="117"/>
       <c r="E98" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F98" s="96"/>
       <c r="G98" s="97"/>
@@ -12472,13 +12479,13 @@
     </row>
     <row r="99" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B99" s="115"/>
       <c r="C99" s="116"/>
       <c r="D99" s="117"/>
       <c r="E99" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F99" s="96"/>
       <c r="G99" s="97"/>
@@ -12532,13 +12539,13 @@
     </row>
     <row r="100" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B100" s="115"/>
       <c r="C100" s="116"/>
       <c r="D100" s="117"/>
       <c r="E100" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F100" s="96"/>
       <c r="G100" s="97"/>
@@ -12592,13 +12599,13 @@
     </row>
     <row r="101" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B101" s="115"/>
       <c r="C101" s="116"/>
       <c r="D101" s="117"/>
       <c r="E101" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F101" s="96"/>
       <c r="G101" s="97"/>
@@ -12652,13 +12659,13 @@
     </row>
     <row r="102" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B102" s="115"/>
       <c r="C102" s="116"/>
       <c r="D102" s="117"/>
       <c r="E102" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F102" s="96"/>
       <c r="G102" s="97"/>
@@ -12712,13 +12719,13 @@
     </row>
     <row r="103" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B103" s="115"/>
       <c r="C103" s="116"/>
       <c r="D103" s="117"/>
       <c r="E103" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F103" s="96"/>
       <c r="G103" s="97"/>
@@ -12772,13 +12779,13 @@
     </row>
     <row r="104" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B104" s="115"/>
       <c r="C104" s="116"/>
       <c r="D104" s="117"/>
       <c r="E104" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F104" s="96"/>
       <c r="G104" s="97"/>
@@ -12832,13 +12839,13 @@
     </row>
     <row r="105" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B105" s="115"/>
       <c r="C105" s="116"/>
       <c r="D105" s="117"/>
       <c r="E105" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F105" s="96"/>
       <c r="G105" s="97"/>
@@ -12892,13 +12899,13 @@
     </row>
     <row r="106" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B106" s="115"/>
       <c r="C106" s="116"/>
       <c r="D106" s="117"/>
       <c r="E106" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F106" s="96"/>
       <c r="G106" s="97"/>
@@ -12952,13 +12959,13 @@
     </row>
     <row r="107" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B107" s="115"/>
       <c r="C107" s="116"/>
       <c r="D107" s="117"/>
       <c r="E107" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F107" s="96"/>
       <c r="G107" s="97"/>
@@ -13012,13 +13019,13 @@
     </row>
     <row r="108" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" s="115"/>
       <c r="C108" s="116"/>
       <c r="D108" s="117"/>
       <c r="E108" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F108" s="96"/>
       <c r="G108" s="97"/>
@@ -13072,13 +13079,13 @@
     </row>
     <row r="109" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B109" s="115"/>
       <c r="C109" s="116"/>
       <c r="D109" s="117"/>
       <c r="E109" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F109" s="96"/>
       <c r="G109" s="97"/>
@@ -13132,13 +13139,13 @@
     </row>
     <row r="110" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B110" s="115"/>
       <c r="C110" s="116"/>
       <c r="D110" s="117"/>
       <c r="E110" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F110" s="96"/>
       <c r="G110" s="97"/>
@@ -13192,13 +13199,13 @@
     </row>
     <row r="111" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B111" s="115"/>
       <c r="C111" s="116"/>
       <c r="D111" s="117"/>
       <c r="E111" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F111" s="96"/>
       <c r="G111" s="97"/>
@@ -13252,13 +13259,13 @@
     </row>
     <row r="112" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B112" s="115"/>
       <c r="C112" s="116"/>
       <c r="D112" s="117"/>
       <c r="E112" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F112" s="96"/>
       <c r="G112" s="97"/>
@@ -13312,13 +13319,13 @@
     </row>
     <row r="113" spans="1:54" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B113" s="115"/>
       <c r="C113" s="116"/>
       <c r="D113" s="117"/>
       <c r="E113" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F113" s="96"/>
       <c r="G113" s="97"/>
@@ -13372,13 +13379,13 @@
     </row>
     <row r="114" spans="1:54" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B114" s="118"/>
       <c r="C114" s="119"/>
       <c r="D114" s="120"/>
       <c r="E114" s="88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F114" s="89"/>
       <c r="G114" s="90"/>
@@ -14395,6 +14402,11 @@
     <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="V34:W34"/>
     <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T32:U32"/>
     <mergeCell ref="AF45:AG45"/>
     <mergeCell ref="AH45:AI45"/>
     <mergeCell ref="AP45:AQ45"/>
@@ -14418,14 +14430,6 @@
     <mergeCell ref="Z45:AA45"/>
     <mergeCell ref="AB45:AC45"/>
     <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="AT38:AU38"/>
-    <mergeCell ref="AT39:AU39"/>
-    <mergeCell ref="AT40:AU40"/>
-    <mergeCell ref="AT41:AU41"/>
     <mergeCell ref="AT42:AU42"/>
     <mergeCell ref="AP41:AQ41"/>
     <mergeCell ref="AP38:AQ38"/>
@@ -14450,7 +14454,9 @@
     <mergeCell ref="AH35:AI35"/>
     <mergeCell ref="AP35:AQ35"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
     <mergeCell ref="Z32:AA32"/>
     <mergeCell ref="AB32:AC32"/>
     <mergeCell ref="AD32:AE32"/>
@@ -14470,10 +14476,7 @@
     <mergeCell ref="AT47:AU47"/>
     <mergeCell ref="AR39:AS39"/>
     <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="X38:Y38"/>
     <mergeCell ref="AM42:AO42"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
     <mergeCell ref="AF39:AG39"/>
     <mergeCell ref="AH39:AI39"/>
     <mergeCell ref="AR33:AS33"/>
@@ -14482,6 +14485,10 @@
     <mergeCell ref="AD33:AE33"/>
     <mergeCell ref="AP46:AQ46"/>
     <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AT38:AU38"/>
+    <mergeCell ref="AT39:AU39"/>
+    <mergeCell ref="AT40:AU40"/>
+    <mergeCell ref="AT41:AU41"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="AB46:AC46"/>
     <mergeCell ref="AD46:AE46"/>
@@ -16281,8 +16288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW92"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD76"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16343,39 +16350,39 @@
       <c r="D2" s="212"/>
       <c r="E2" s="212"/>
       <c r="F2" s="212"/>
-      <c r="G2" s="217" t="s">
+      <c r="G2" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217" t="s">
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
-      <c r="AB2" s="217"/>
-      <c r="AC2" s="219" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="221"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="220" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD2" s="221"/>
+      <c r="AE2" s="221"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="222"/>
       <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16385,62 +16392,62 @@
       <c r="D3" s="214"/>
       <c r="E3" s="214"/>
       <c r="F3" s="214"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="218"/>
-      <c r="AB3" s="218"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="222"/>
-      <c r="AG3" s="223"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="223"/>
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="223"/>
+      <c r="AG3" s="224"/>
       <c r="AH3" s="26"/>
     </row>
     <row r="4" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="216" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="215"/>
+      <c r="D4" s="217" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="215" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215" t="s">
+      <c r="H4" s="215"/>
+      <c r="I4" s="217" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215" t="s">
+      <c r="J4" s="217"/>
+      <c r="K4" s="215" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215" t="s">
+      <c r="L4" s="215"/>
+      <c r="M4" s="217" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="N4" s="215"/>
+      <c r="N4" s="217"/>
       <c r="O4" s="215" t="s">
         <v>22</v>
       </c>
@@ -16466,62 +16473,62 @@
     </row>
     <row r="5" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="237" t="s">
+      <c r="C5" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="237" t="s">
+      <c r="D5" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="225" t="s">
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225" t="s">
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="225" t="s">
+      <c r="K5" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="225" t="s">
+      <c r="L5" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="225"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225"/>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="225"/>
-      <c r="Z5" s="225"/>
-      <c r="AA5" s="225"/>
-      <c r="AB5" s="225"/>
-      <c r="AC5" s="225"/>
-      <c r="AD5" s="225"/>
-      <c r="AE5" s="225"/>
-      <c r="AF5" s="225" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="231"/>
+      <c r="U5" s="231"/>
+      <c r="V5" s="231"/>
+      <c r="W5" s="231"/>
+      <c r="X5" s="231"/>
+      <c r="Y5" s="231"/>
+      <c r="Z5" s="231"/>
+      <c r="AA5" s="231"/>
+      <c r="AB5" s="231"/>
+      <c r="AC5" s="231"/>
+      <c r="AD5" s="231"/>
+      <c r="AE5" s="231"/>
+      <c r="AF5" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="235" t="s">
+      <c r="AG5" s="226" t="s">
         <v>30</v>
       </c>
       <c r="AH5" s="26"/>
     </row>
     <row r="6" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="226"/>
-      <c r="C6" s="237"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="229"/>
       <c r="D6" s="15" t="s">
         <v>33</v>
       </c>
@@ -16540,8 +16547,8 @@
       <c r="I6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="12" t="s">
         <v>38</v>
       </c>
@@ -16602,33 +16609,33 @@
       <c r="AE6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="235"/>
+      <c r="AF6" s="231"/>
+      <c r="AG6" s="226"/>
       <c r="AH6" s="26"/>
     </row>
     <row r="7" spans="1:34" s="51" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="G7" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="H7" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="I7" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="K7" s="42" t="s">
         <v>149</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>151</v>
       </c>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
@@ -16667,7 +16674,7 @@
       <c r="J8" s="43"/>
       <c r="K8" s="26"/>
       <c r="L8" s="45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
@@ -17369,7 +17376,7 @@
       <c r="B25" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="236" t="s">
+      <c r="C25" s="228" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="215" t="s">
@@ -17391,7 +17398,7 @@
       <c r="P25" s="215"/>
       <c r="Q25" s="215"/>
       <c r="R25" s="215"/>
-      <c r="S25" s="238"/>
+      <c r="S25" s="230"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
@@ -17410,8 +17417,8 @@
     </row>
     <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
-      <c r="B26" s="226"/>
-      <c r="C26" s="237"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="12" t="s">
         <v>40</v>
       </c>
@@ -17480,55 +17487,55 @@
       <c r="A27" s="26"/>
       <c r="B27" s="40"/>
       <c r="C27" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="H27" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="I27" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="J27" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="K27" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="M27" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="L27" s="46" t="s">
+      <c r="N27" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="M27" s="46" t="s">
+      <c r="O27" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="N27" s="46" t="s">
+      <c r="P27" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="O27" s="46" t="s">
+      <c r="Q27" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="P27" s="46" t="s">
+      <c r="R27" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="Q27" s="46" t="s">
+      <c r="S27" s="46" t="s">
         <v>164</v>
-      </c>
-      <c r="R27" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="S27" s="46" t="s">
-        <v>166</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
@@ -18126,42 +18133,42 @@
     </row>
     <row r="44" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
-      <c r="B44" s="230" t="s">
+      <c r="B44" s="235" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="231"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="231"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
-      <c r="N44" s="231"/>
-      <c r="O44" s="231"/>
-      <c r="P44" s="231"/>
-      <c r="Q44" s="231"/>
-      <c r="R44" s="231"/>
-      <c r="S44" s="231"/>
-      <c r="T44" s="231"/>
-      <c r="U44" s="232"/>
-      <c r="V44" s="233" t="s">
+      <c r="C44" s="236"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
+      <c r="F44" s="236"/>
+      <c r="G44" s="236"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="236"/>
+      <c r="L44" s="236"/>
+      <c r="M44" s="236"/>
+      <c r="N44" s="236"/>
+      <c r="O44" s="236"/>
+      <c r="P44" s="236"/>
+      <c r="Q44" s="236"/>
+      <c r="R44" s="236"/>
+      <c r="S44" s="236"/>
+      <c r="T44" s="236"/>
+      <c r="U44" s="237"/>
+      <c r="V44" s="238" t="s">
         <v>102</v>
       </c>
-      <c r="W44" s="231"/>
-      <c r="X44" s="231"/>
-      <c r="Y44" s="231"/>
-      <c r="Z44" s="231"/>
-      <c r="AA44" s="231"/>
-      <c r="AB44" s="231"/>
-      <c r="AC44" s="231"/>
-      <c r="AD44" s="231"/>
-      <c r="AE44" s="231"/>
-      <c r="AF44" s="231"/>
-      <c r="AG44" s="234"/>
+      <c r="W44" s="236"/>
+      <c r="X44" s="236"/>
+      <c r="Y44" s="236"/>
+      <c r="Z44" s="236"/>
+      <c r="AA44" s="236"/>
+      <c r="AB44" s="236"/>
+      <c r="AC44" s="236"/>
+      <c r="AD44" s="236"/>
+      <c r="AE44" s="236"/>
+      <c r="AF44" s="236"/>
+      <c r="AG44" s="239"/>
       <c r="AH44" s="26"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
@@ -18181,52 +18188,52 @@
     </row>
     <row r="45" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
-      <c r="B45" s="226" t="s">
+      <c r="B45" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="225" t="s">
+      <c r="C45" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="227" t="s">
+      <c r="D45" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="228"/>
-      <c r="H45" s="228"/>
-      <c r="I45" s="228"/>
-      <c r="J45" s="228"/>
-      <c r="K45" s="228"/>
-      <c r="L45" s="228"/>
-      <c r="M45" s="228"/>
-      <c r="N45" s="228"/>
-      <c r="O45" s="228"/>
-      <c r="P45" s="228"/>
-      <c r="Q45" s="228"/>
-      <c r="R45" s="228"/>
-      <c r="S45" s="228"/>
-      <c r="T45" s="228"/>
-      <c r="U45" s="229"/>
-      <c r="V45" s="225" t="s">
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="233"/>
+      <c r="H45" s="233"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="233"/>
+      <c r="K45" s="233"/>
+      <c r="L45" s="233"/>
+      <c r="M45" s="233"/>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
+      <c r="P45" s="233"/>
+      <c r="Q45" s="233"/>
+      <c r="R45" s="233"/>
+      <c r="S45" s="233"/>
+      <c r="T45" s="233"/>
+      <c r="U45" s="234"/>
+      <c r="V45" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="W45" s="225" t="s">
+      <c r="W45" s="231" t="s">
         <v>92</v>
       </c>
-      <c r="X45" s="263" t="s">
+      <c r="X45" s="259" t="s">
         <v>99</v>
       </c>
-      <c r="Y45" s="264"/>
-      <c r="Z45" s="264"/>
-      <c r="AA45" s="265"/>
-      <c r="AB45" s="241" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC45" s="241"/>
-      <c r="AD45" s="241"/>
-      <c r="AE45" s="241"/>
-      <c r="AF45" s="241"/>
-      <c r="AG45" s="242"/>
+      <c r="Y45" s="260"/>
+      <c r="Z45" s="260"/>
+      <c r="AA45" s="261"/>
+      <c r="AB45" s="262" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC45" s="262"/>
+      <c r="AD45" s="262"/>
+      <c r="AE45" s="262"/>
+      <c r="AF45" s="262"/>
+      <c r="AG45" s="263"/>
       <c r="AH45" s="26"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="11"/>
@@ -18246,8 +18253,8 @@
     </row>
     <row r="46" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
-      <c r="B46" s="226"/>
-      <c r="C46" s="225"/>
+      <c r="B46" s="227"/>
+      <c r="C46" s="231"/>
       <c r="D46" s="12" t="s">
         <v>83</v>
       </c>
@@ -18302,8 +18309,8 @@
       <c r="U46" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="V46" s="225"/>
-      <c r="W46" s="225"/>
+      <c r="V46" s="231"/>
+      <c r="W46" s="231"/>
       <c r="X46" s="12" t="s">
         <v>93</v>
       </c>
@@ -18335,7 +18342,7 @@
     <row r="47" spans="1:49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -18356,20 +18363,20 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="225" t="s">
+      <c r="V47" s="231" t="s">
         <v>106</v>
       </c>
       <c r="W47" s="12" t="s">
         <v>103</v>
       </c>
       <c r="X47" s="52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -18400,12 +18407,12 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="225"/>
+      <c r="V48" s="231"/>
       <c r="W48" s="12" t="s">
         <v>104</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -18440,7 +18447,7 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="225"/>
+      <c r="V49" s="231"/>
       <c r="W49" s="12" t="s">
         <v>105</v>
       </c>
@@ -18502,7 +18509,7 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="260" t="s">
+      <c r="V50" s="256" t="s">
         <v>107</v>
       </c>
       <c r="W50" s="12" t="s">
@@ -18550,9 +18557,9 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="261"/>
+      <c r="V51" s="257"/>
       <c r="W51" s="52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
@@ -18588,7 +18595,7 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="262"/>
+      <c r="V52" s="258"/>
       <c r="W52" s="12"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
@@ -18624,7 +18631,7 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="255" t="s">
+      <c r="V53" s="253" t="s">
         <v>111</v>
       </c>
       <c r="W53" s="12" t="s">
@@ -18678,10 +18685,10 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="256"/>
+      <c r="V54" s="254"/>
       <c r="W54" s="12"/>
       <c r="X54" s="52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -18716,7 +18723,7 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="256"/>
+      <c r="V55" s="254"/>
       <c r="W55" s="12"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
@@ -18752,7 +18759,7 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="256"/>
+      <c r="V56" s="254"/>
       <c r="W56" s="12"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
@@ -18788,7 +18795,7 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="256"/>
+      <c r="V57" s="254"/>
       <c r="W57" s="12"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
@@ -18824,7 +18831,7 @@
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
-      <c r="V58" s="257"/>
+      <c r="V58" s="255"/>
       <c r="W58" s="35"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -18897,613 +18904,613 @@
       <c r="N60" s="215"/>
       <c r="O60" s="215"/>
       <c r="P60" s="215"/>
-      <c r="Q60" s="238"/>
+      <c r="Q60" s="230"/>
       <c r="R60" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="S60" s="233" t="s">
+      <c r="S60" s="238" t="s">
         <v>120</v>
       </c>
-      <c r="T60" s="231"/>
-      <c r="U60" s="231"/>
-      <c r="V60" s="231"/>
-      <c r="W60" s="231"/>
-      <c r="X60" s="232"/>
-      <c r="Y60" s="233" t="s">
+      <c r="T60" s="236"/>
+      <c r="U60" s="236"/>
+      <c r="V60" s="236"/>
+      <c r="W60" s="236"/>
+      <c r="X60" s="237"/>
+      <c r="Y60" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="Z60" s="231"/>
-      <c r="AA60" s="231"/>
-      <c r="AB60" s="231"/>
-      <c r="AC60" s="231"/>
-      <c r="AD60" s="231"/>
-      <c r="AE60" s="231"/>
-      <c r="AF60" s="231"/>
-      <c r="AG60" s="234"/>
+      <c r="Z60" s="236"/>
+      <c r="AA60" s="236"/>
+      <c r="AB60" s="236"/>
+      <c r="AC60" s="236"/>
+      <c r="AD60" s="236"/>
+      <c r="AE60" s="236"/>
+      <c r="AF60" s="236"/>
+      <c r="AG60" s="239"/>
       <c r="AH60" s="26"/>
     </row>
     <row r="61" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
-      <c r="B61" s="226" t="s">
+      <c r="B61" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="258"/>
-      <c r="D61" s="258"/>
-      <c r="E61" s="258"/>
-      <c r="F61" s="258"/>
-      <c r="G61" s="258"/>
-      <c r="H61" s="258"/>
-      <c r="I61" s="243"/>
-      <c r="J61" s="244"/>
-      <c r="K61" s="244"/>
-      <c r="L61" s="244"/>
-      <c r="M61" s="244"/>
-      <c r="N61" s="244"/>
-      <c r="O61" s="244"/>
-      <c r="P61" s="244"/>
-      <c r="Q61" s="252"/>
-      <c r="R61" s="226" t="s">
+      <c r="C61" s="242"/>
+      <c r="D61" s="242"/>
+      <c r="E61" s="242"/>
+      <c r="F61" s="242"/>
+      <c r="G61" s="242"/>
+      <c r="H61" s="242"/>
+      <c r="I61" s="244"/>
+      <c r="J61" s="245"/>
+      <c r="K61" s="245"/>
+      <c r="L61" s="245"/>
+      <c r="M61" s="245"/>
+      <c r="N61" s="245"/>
+      <c r="O61" s="245"/>
+      <c r="P61" s="245"/>
+      <c r="Q61" s="246"/>
+      <c r="R61" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="S61" s="243"/>
-      <c r="T61" s="244"/>
-      <c r="U61" s="244"/>
-      <c r="V61" s="244"/>
-      <c r="W61" s="244"/>
-      <c r="X61" s="245"/>
-      <c r="Y61" s="243"/>
-      <c r="Z61" s="244"/>
-      <c r="AA61" s="244"/>
-      <c r="AB61" s="244"/>
-      <c r="AC61" s="244"/>
-      <c r="AD61" s="244"/>
-      <c r="AE61" s="244"/>
-      <c r="AF61" s="244"/>
-      <c r="AG61" s="252"/>
+      <c r="S61" s="244"/>
+      <c r="T61" s="245"/>
+      <c r="U61" s="245"/>
+      <c r="V61" s="245"/>
+      <c r="W61" s="245"/>
+      <c r="X61" s="264"/>
+      <c r="Y61" s="244"/>
+      <c r="Z61" s="245"/>
+      <c r="AA61" s="245"/>
+      <c r="AB61" s="245"/>
+      <c r="AC61" s="245"/>
+      <c r="AD61" s="245"/>
+      <c r="AE61" s="245"/>
+      <c r="AF61" s="245"/>
+      <c r="AG61" s="246"/>
       <c r="AH61" s="26"/>
     </row>
     <row r="62" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
-      <c r="B62" s="226"/>
-      <c r="C62" s="258"/>
-      <c r="D62" s="258"/>
-      <c r="E62" s="258"/>
-      <c r="F62" s="258"/>
-      <c r="G62" s="258"/>
-      <c r="H62" s="258"/>
-      <c r="I62" s="246"/>
-      <c r="J62" s="247"/>
-      <c r="K62" s="247"/>
-      <c r="L62" s="247"/>
-      <c r="M62" s="247"/>
-      <c r="N62" s="247"/>
-      <c r="O62" s="247"/>
-      <c r="P62" s="247"/>
-      <c r="Q62" s="253"/>
-      <c r="R62" s="226"/>
-      <c r="S62" s="246"/>
-      <c r="T62" s="247"/>
-      <c r="U62" s="247"/>
-      <c r="V62" s="247"/>
-      <c r="W62" s="247"/>
-      <c r="X62" s="248"/>
-      <c r="Y62" s="246"/>
-      <c r="Z62" s="247"/>
-      <c r="AA62" s="247"/>
-      <c r="AB62" s="247"/>
-      <c r="AC62" s="247"/>
-      <c r="AD62" s="247"/>
-      <c r="AE62" s="247"/>
-      <c r="AF62" s="247"/>
-      <c r="AG62" s="253"/>
+      <c r="B62" s="227"/>
+      <c r="C62" s="242"/>
+      <c r="D62" s="242"/>
+      <c r="E62" s="242"/>
+      <c r="F62" s="242"/>
+      <c r="G62" s="242"/>
+      <c r="H62" s="242"/>
+      <c r="I62" s="247"/>
+      <c r="J62" s="248"/>
+      <c r="K62" s="248"/>
+      <c r="L62" s="248"/>
+      <c r="M62" s="248"/>
+      <c r="N62" s="248"/>
+      <c r="O62" s="248"/>
+      <c r="P62" s="248"/>
+      <c r="Q62" s="249"/>
+      <c r="R62" s="227"/>
+      <c r="S62" s="247"/>
+      <c r="T62" s="248"/>
+      <c r="U62" s="248"/>
+      <c r="V62" s="248"/>
+      <c r="W62" s="248"/>
+      <c r="X62" s="265"/>
+      <c r="Y62" s="247"/>
+      <c r="Z62" s="248"/>
+      <c r="AA62" s="248"/>
+      <c r="AB62" s="248"/>
+      <c r="AC62" s="248"/>
+      <c r="AD62" s="248"/>
+      <c r="AE62" s="248"/>
+      <c r="AF62" s="248"/>
+      <c r="AG62" s="249"/>
       <c r="AH62" s="26"/>
     </row>
     <row r="63" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
-      <c r="B63" s="226"/>
-      <c r="C63" s="258"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="246"/>
-      <c r="J63" s="247"/>
-      <c r="K63" s="247"/>
-      <c r="L63" s="247"/>
-      <c r="M63" s="247"/>
-      <c r="N63" s="247"/>
-      <c r="O63" s="247"/>
-      <c r="P63" s="247"/>
-      <c r="Q63" s="253"/>
-      <c r="R63" s="226"/>
-      <c r="S63" s="246"/>
-      <c r="T63" s="247"/>
-      <c r="U63" s="247"/>
-      <c r="V63" s="247"/>
-      <c r="W63" s="247"/>
-      <c r="X63" s="248"/>
-      <c r="Y63" s="246"/>
-      <c r="Z63" s="247"/>
-      <c r="AA63" s="247"/>
-      <c r="AB63" s="247"/>
-      <c r="AC63" s="247"/>
-      <c r="AD63" s="247"/>
-      <c r="AE63" s="247"/>
-      <c r="AF63" s="247"/>
-      <c r="AG63" s="253"/>
+      <c r="B63" s="227"/>
+      <c r="C63" s="242"/>
+      <c r="D63" s="242"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="242"/>
+      <c r="G63" s="242"/>
+      <c r="H63" s="242"/>
+      <c r="I63" s="247"/>
+      <c r="J63" s="248"/>
+      <c r="K63" s="248"/>
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="248"/>
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="249"/>
+      <c r="R63" s="227"/>
+      <c r="S63" s="247"/>
+      <c r="T63" s="248"/>
+      <c r="U63" s="248"/>
+      <c r="V63" s="248"/>
+      <c r="W63" s="248"/>
+      <c r="X63" s="265"/>
+      <c r="Y63" s="247"/>
+      <c r="Z63" s="248"/>
+      <c r="AA63" s="248"/>
+      <c r="AB63" s="248"/>
+      <c r="AC63" s="248"/>
+      <c r="AD63" s="248"/>
+      <c r="AE63" s="248"/>
+      <c r="AF63" s="248"/>
+      <c r="AG63" s="249"/>
       <c r="AH63" s="26"/>
     </row>
     <row r="64" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
-      <c r="B64" s="226"/>
-      <c r="C64" s="258"/>
-      <c r="D64" s="258"/>
-      <c r="E64" s="258"/>
-      <c r="F64" s="258"/>
-      <c r="G64" s="258"/>
-      <c r="H64" s="258"/>
-      <c r="I64" s="246"/>
-      <c r="J64" s="247"/>
-      <c r="K64" s="247"/>
-      <c r="L64" s="247"/>
-      <c r="M64" s="247"/>
-      <c r="N64" s="247"/>
-      <c r="O64" s="247"/>
-      <c r="P64" s="247"/>
-      <c r="Q64" s="253"/>
-      <c r="R64" s="226"/>
-      <c r="S64" s="246"/>
-      <c r="T64" s="247"/>
-      <c r="U64" s="247"/>
-      <c r="V64" s="247"/>
-      <c r="W64" s="247"/>
-      <c r="X64" s="248"/>
-      <c r="Y64" s="246"/>
-      <c r="Z64" s="247"/>
-      <c r="AA64" s="247"/>
-      <c r="AB64" s="247"/>
-      <c r="AC64" s="247"/>
-      <c r="AD64" s="247"/>
-      <c r="AE64" s="247"/>
-      <c r="AF64" s="247"/>
-      <c r="AG64" s="253"/>
+      <c r="B64" s="227"/>
+      <c r="C64" s="242"/>
+      <c r="D64" s="242"/>
+      <c r="E64" s="242"/>
+      <c r="F64" s="242"/>
+      <c r="G64" s="242"/>
+      <c r="H64" s="242"/>
+      <c r="I64" s="247"/>
+      <c r="J64" s="248"/>
+      <c r="K64" s="248"/>
+      <c r="L64" s="248"/>
+      <c r="M64" s="248"/>
+      <c r="N64" s="248"/>
+      <c r="O64" s="248"/>
+      <c r="P64" s="248"/>
+      <c r="Q64" s="249"/>
+      <c r="R64" s="227"/>
+      <c r="S64" s="247"/>
+      <c r="T64" s="248"/>
+      <c r="U64" s="248"/>
+      <c r="V64" s="248"/>
+      <c r="W64" s="248"/>
+      <c r="X64" s="265"/>
+      <c r="Y64" s="247"/>
+      <c r="Z64" s="248"/>
+      <c r="AA64" s="248"/>
+      <c r="AB64" s="248"/>
+      <c r="AC64" s="248"/>
+      <c r="AD64" s="248"/>
+      <c r="AE64" s="248"/>
+      <c r="AF64" s="248"/>
+      <c r="AG64" s="249"/>
       <c r="AH64" s="26"/>
     </row>
     <row r="65" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
-      <c r="B65" s="226" t="s">
+      <c r="B65" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="258"/>
-      <c r="D65" s="258"/>
-      <c r="E65" s="258"/>
-      <c r="F65" s="258"/>
-      <c r="G65" s="258"/>
-      <c r="H65" s="258"/>
-      <c r="I65" s="246"/>
-      <c r="J65" s="247"/>
-      <c r="K65" s="247"/>
-      <c r="L65" s="247"/>
-      <c r="M65" s="247"/>
-      <c r="N65" s="247"/>
-      <c r="O65" s="247"/>
-      <c r="P65" s="247"/>
-      <c r="Q65" s="253"/>
-      <c r="R65" s="226" t="s">
+      <c r="C65" s="242"/>
+      <c r="D65" s="242"/>
+      <c r="E65" s="242"/>
+      <c r="F65" s="242"/>
+      <c r="G65" s="242"/>
+      <c r="H65" s="242"/>
+      <c r="I65" s="247"/>
+      <c r="J65" s="248"/>
+      <c r="K65" s="248"/>
+      <c r="L65" s="248"/>
+      <c r="M65" s="248"/>
+      <c r="N65" s="248"/>
+      <c r="O65" s="248"/>
+      <c r="P65" s="248"/>
+      <c r="Q65" s="249"/>
+      <c r="R65" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="S65" s="246"/>
-      <c r="T65" s="247"/>
-      <c r="U65" s="247"/>
-      <c r="V65" s="247"/>
-      <c r="W65" s="247"/>
-      <c r="X65" s="248"/>
-      <c r="Y65" s="246"/>
-      <c r="Z65" s="247"/>
-      <c r="AA65" s="247"/>
-      <c r="AB65" s="247"/>
-      <c r="AC65" s="247"/>
-      <c r="AD65" s="247"/>
-      <c r="AE65" s="247"/>
-      <c r="AF65" s="247"/>
-      <c r="AG65" s="253"/>
+      <c r="S65" s="247"/>
+      <c r="T65" s="248"/>
+      <c r="U65" s="248"/>
+      <c r="V65" s="248"/>
+      <c r="W65" s="248"/>
+      <c r="X65" s="265"/>
+      <c r="Y65" s="247"/>
+      <c r="Z65" s="248"/>
+      <c r="AA65" s="248"/>
+      <c r="AB65" s="248"/>
+      <c r="AC65" s="248"/>
+      <c r="AD65" s="248"/>
+      <c r="AE65" s="248"/>
+      <c r="AF65" s="248"/>
+      <c r="AG65" s="249"/>
       <c r="AH65" s="26"/>
     </row>
     <row r="66" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
-      <c r="B66" s="226"/>
-      <c r="C66" s="258"/>
-      <c r="D66" s="258"/>
-      <c r="E66" s="258"/>
-      <c r="F66" s="258"/>
-      <c r="G66" s="258"/>
-      <c r="H66" s="258"/>
-      <c r="I66" s="246"/>
-      <c r="J66" s="247"/>
-      <c r="K66" s="247"/>
-      <c r="L66" s="247"/>
-      <c r="M66" s="247"/>
-      <c r="N66" s="247"/>
-      <c r="O66" s="247"/>
-      <c r="P66" s="247"/>
-      <c r="Q66" s="253"/>
-      <c r="R66" s="226"/>
-      <c r="S66" s="246"/>
-      <c r="T66" s="247"/>
-      <c r="U66" s="247"/>
-      <c r="V66" s="247"/>
-      <c r="W66" s="247"/>
-      <c r="X66" s="248"/>
-      <c r="Y66" s="246"/>
-      <c r="Z66" s="247"/>
-      <c r="AA66" s="247"/>
-      <c r="AB66" s="247"/>
-      <c r="AC66" s="247"/>
-      <c r="AD66" s="247"/>
-      <c r="AE66" s="247"/>
-      <c r="AF66" s="247"/>
-      <c r="AG66" s="253"/>
+      <c r="B66" s="227"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="242"/>
+      <c r="E66" s="242"/>
+      <c r="F66" s="242"/>
+      <c r="G66" s="242"/>
+      <c r="H66" s="242"/>
+      <c r="I66" s="247"/>
+      <c r="J66" s="248"/>
+      <c r="K66" s="248"/>
+      <c r="L66" s="248"/>
+      <c r="M66" s="248"/>
+      <c r="N66" s="248"/>
+      <c r="O66" s="248"/>
+      <c r="P66" s="248"/>
+      <c r="Q66" s="249"/>
+      <c r="R66" s="227"/>
+      <c r="S66" s="247"/>
+      <c r="T66" s="248"/>
+      <c r="U66" s="248"/>
+      <c r="V66" s="248"/>
+      <c r="W66" s="248"/>
+      <c r="X66" s="265"/>
+      <c r="Y66" s="247"/>
+      <c r="Z66" s="248"/>
+      <c r="AA66" s="248"/>
+      <c r="AB66" s="248"/>
+      <c r="AC66" s="248"/>
+      <c r="AD66" s="248"/>
+      <c r="AE66" s="248"/>
+      <c r="AF66" s="248"/>
+      <c r="AG66" s="249"/>
       <c r="AH66" s="26"/>
     </row>
     <row r="67" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
-      <c r="B67" s="239"/>
-      <c r="C67" s="258"/>
-      <c r="D67" s="258"/>
-      <c r="E67" s="258"/>
-      <c r="F67" s="258"/>
-      <c r="G67" s="258"/>
-      <c r="H67" s="258"/>
-      <c r="I67" s="246"/>
-      <c r="J67" s="247"/>
-      <c r="K67" s="247"/>
-      <c r="L67" s="247"/>
-      <c r="M67" s="247"/>
-      <c r="N67" s="247"/>
-      <c r="O67" s="247"/>
-      <c r="P67" s="247"/>
-      <c r="Q67" s="253"/>
-      <c r="R67" s="239"/>
-      <c r="S67" s="246"/>
-      <c r="T67" s="247"/>
-      <c r="U67" s="247"/>
-      <c r="V67" s="247"/>
-      <c r="W67" s="247"/>
-      <c r="X67" s="248"/>
-      <c r="Y67" s="246"/>
-      <c r="Z67" s="247"/>
-      <c r="AA67" s="247"/>
-      <c r="AB67" s="247"/>
-      <c r="AC67" s="247"/>
-      <c r="AD67" s="247"/>
-      <c r="AE67" s="247"/>
-      <c r="AF67" s="247"/>
-      <c r="AG67" s="253"/>
+      <c r="B67" s="240"/>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
+      <c r="E67" s="242"/>
+      <c r="F67" s="242"/>
+      <c r="G67" s="242"/>
+      <c r="H67" s="242"/>
+      <c r="I67" s="247"/>
+      <c r="J67" s="248"/>
+      <c r="K67" s="248"/>
+      <c r="L67" s="248"/>
+      <c r="M67" s="248"/>
+      <c r="N67" s="248"/>
+      <c r="O67" s="248"/>
+      <c r="P67" s="248"/>
+      <c r="Q67" s="249"/>
+      <c r="R67" s="240"/>
+      <c r="S67" s="247"/>
+      <c r="T67" s="248"/>
+      <c r="U67" s="248"/>
+      <c r="V67" s="248"/>
+      <c r="W67" s="248"/>
+      <c r="X67" s="265"/>
+      <c r="Y67" s="247"/>
+      <c r="Z67" s="248"/>
+      <c r="AA67" s="248"/>
+      <c r="AB67" s="248"/>
+      <c r="AC67" s="248"/>
+      <c r="AD67" s="248"/>
+      <c r="AE67" s="248"/>
+      <c r="AF67" s="248"/>
+      <c r="AG67" s="249"/>
       <c r="AH67" s="26"/>
     </row>
     <row r="68" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
-      <c r="B68" s="239"/>
-      <c r="C68" s="258"/>
-      <c r="D68" s="258"/>
-      <c r="E68" s="258"/>
-      <c r="F68" s="258"/>
-      <c r="G68" s="258"/>
-      <c r="H68" s="258"/>
-      <c r="I68" s="246"/>
-      <c r="J68" s="247"/>
-      <c r="K68" s="247"/>
-      <c r="L68" s="247"/>
-      <c r="M68" s="247"/>
-      <c r="N68" s="247"/>
-      <c r="O68" s="247"/>
-      <c r="P68" s="247"/>
-      <c r="Q68" s="253"/>
-      <c r="R68" s="239"/>
-      <c r="S68" s="246"/>
-      <c r="T68" s="247"/>
-      <c r="U68" s="247"/>
-      <c r="V68" s="247"/>
-      <c r="W68" s="247"/>
-      <c r="X68" s="248"/>
-      <c r="Y68" s="246"/>
-      <c r="Z68" s="247"/>
-      <c r="AA68" s="247"/>
-      <c r="AB68" s="247"/>
-      <c r="AC68" s="247"/>
-      <c r="AD68" s="247"/>
-      <c r="AE68" s="247"/>
-      <c r="AF68" s="247"/>
-      <c r="AG68" s="253"/>
+      <c r="B68" s="240"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="242"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="247"/>
+      <c r="J68" s="248"/>
+      <c r="K68" s="248"/>
+      <c r="L68" s="248"/>
+      <c r="M68" s="248"/>
+      <c r="N68" s="248"/>
+      <c r="O68" s="248"/>
+      <c r="P68" s="248"/>
+      <c r="Q68" s="249"/>
+      <c r="R68" s="240"/>
+      <c r="S68" s="247"/>
+      <c r="T68" s="248"/>
+      <c r="U68" s="248"/>
+      <c r="V68" s="248"/>
+      <c r="W68" s="248"/>
+      <c r="X68" s="265"/>
+      <c r="Y68" s="247"/>
+      <c r="Z68" s="248"/>
+      <c r="AA68" s="248"/>
+      <c r="AB68" s="248"/>
+      <c r="AC68" s="248"/>
+      <c r="AD68" s="248"/>
+      <c r="AE68" s="248"/>
+      <c r="AF68" s="248"/>
+      <c r="AG68" s="249"/>
       <c r="AH68" s="26"/>
     </row>
     <row r="69" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
-      <c r="B69" s="239"/>
-      <c r="C69" s="258"/>
-      <c r="D69" s="258"/>
-      <c r="E69" s="258"/>
-      <c r="F69" s="258"/>
-      <c r="G69" s="258"/>
-      <c r="H69" s="258"/>
-      <c r="I69" s="246"/>
-      <c r="J69" s="247"/>
-      <c r="K69" s="247"/>
-      <c r="L69" s="247"/>
-      <c r="M69" s="247"/>
-      <c r="N69" s="247"/>
-      <c r="O69" s="247"/>
-      <c r="P69" s="247"/>
-      <c r="Q69" s="253"/>
-      <c r="R69" s="239"/>
-      <c r="S69" s="246"/>
-      <c r="T69" s="247"/>
-      <c r="U69" s="247"/>
-      <c r="V69" s="247"/>
-      <c r="W69" s="247"/>
-      <c r="X69" s="248"/>
-      <c r="Y69" s="246"/>
-      <c r="Z69" s="247"/>
-      <c r="AA69" s="247"/>
-      <c r="AB69" s="247"/>
-      <c r="AC69" s="247"/>
-      <c r="AD69" s="247"/>
-      <c r="AE69" s="247"/>
-      <c r="AF69" s="247"/>
-      <c r="AG69" s="253"/>
+      <c r="B69" s="240"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="242"/>
+      <c r="E69" s="242"/>
+      <c r="F69" s="242"/>
+      <c r="G69" s="242"/>
+      <c r="H69" s="242"/>
+      <c r="I69" s="247"/>
+      <c r="J69" s="248"/>
+      <c r="K69" s="248"/>
+      <c r="L69" s="248"/>
+      <c r="M69" s="248"/>
+      <c r="N69" s="248"/>
+      <c r="O69" s="248"/>
+      <c r="P69" s="248"/>
+      <c r="Q69" s="249"/>
+      <c r="R69" s="240"/>
+      <c r="S69" s="247"/>
+      <c r="T69" s="248"/>
+      <c r="U69" s="248"/>
+      <c r="V69" s="248"/>
+      <c r="W69" s="248"/>
+      <c r="X69" s="265"/>
+      <c r="Y69" s="247"/>
+      <c r="Z69" s="248"/>
+      <c r="AA69" s="248"/>
+      <c r="AB69" s="248"/>
+      <c r="AC69" s="248"/>
+      <c r="AD69" s="248"/>
+      <c r="AE69" s="248"/>
+      <c r="AF69" s="248"/>
+      <c r="AG69" s="249"/>
       <c r="AH69" s="26"/>
     </row>
     <row r="70" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
-      <c r="B70" s="239"/>
-      <c r="C70" s="258"/>
-      <c r="D70" s="258"/>
-      <c r="E70" s="258"/>
-      <c r="F70" s="258"/>
-      <c r="G70" s="258"/>
-      <c r="H70" s="258"/>
-      <c r="I70" s="246"/>
-      <c r="J70" s="247"/>
-      <c r="K70" s="247"/>
-      <c r="L70" s="247"/>
-      <c r="M70" s="247"/>
-      <c r="N70" s="247"/>
-      <c r="O70" s="247"/>
-      <c r="P70" s="247"/>
-      <c r="Q70" s="253"/>
-      <c r="R70" s="239"/>
-      <c r="S70" s="246"/>
-      <c r="T70" s="247"/>
-      <c r="U70" s="247"/>
-      <c r="V70" s="247"/>
-      <c r="W70" s="247"/>
-      <c r="X70" s="248"/>
-      <c r="Y70" s="246"/>
-      <c r="Z70" s="247"/>
-      <c r="AA70" s="247"/>
-      <c r="AB70" s="247"/>
-      <c r="AC70" s="247"/>
-      <c r="AD70" s="247"/>
-      <c r="AE70" s="247"/>
-      <c r="AF70" s="247"/>
-      <c r="AG70" s="253"/>
+      <c r="B70" s="240"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="242"/>
+      <c r="E70" s="242"/>
+      <c r="F70" s="242"/>
+      <c r="G70" s="242"/>
+      <c r="H70" s="242"/>
+      <c r="I70" s="247"/>
+      <c r="J70" s="248"/>
+      <c r="K70" s="248"/>
+      <c r="L70" s="248"/>
+      <c r="M70" s="248"/>
+      <c r="N70" s="248"/>
+      <c r="O70" s="248"/>
+      <c r="P70" s="248"/>
+      <c r="Q70" s="249"/>
+      <c r="R70" s="240"/>
+      <c r="S70" s="247"/>
+      <c r="T70" s="248"/>
+      <c r="U70" s="248"/>
+      <c r="V70" s="248"/>
+      <c r="W70" s="248"/>
+      <c r="X70" s="265"/>
+      <c r="Y70" s="247"/>
+      <c r="Z70" s="248"/>
+      <c r="AA70" s="248"/>
+      <c r="AB70" s="248"/>
+      <c r="AC70" s="248"/>
+      <c r="AD70" s="248"/>
+      <c r="AE70" s="248"/>
+      <c r="AF70" s="248"/>
+      <c r="AG70" s="249"/>
       <c r="AH70" s="26"/>
     </row>
     <row r="71" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
-      <c r="B71" s="239"/>
-      <c r="C71" s="258"/>
-      <c r="D71" s="258"/>
-      <c r="E71" s="258"/>
-      <c r="F71" s="258"/>
-      <c r="G71" s="258"/>
-      <c r="H71" s="258"/>
-      <c r="I71" s="246"/>
-      <c r="J71" s="247"/>
-      <c r="K71" s="247"/>
-      <c r="L71" s="247"/>
-      <c r="M71" s="247"/>
-      <c r="N71" s="247"/>
-      <c r="O71" s="247"/>
-      <c r="P71" s="247"/>
-      <c r="Q71" s="253"/>
-      <c r="R71" s="239"/>
-      <c r="S71" s="246"/>
-      <c r="T71" s="247"/>
-      <c r="U71" s="247"/>
-      <c r="V71" s="247"/>
-      <c r="W71" s="247"/>
-      <c r="X71" s="248"/>
-      <c r="Y71" s="246"/>
-      <c r="Z71" s="247"/>
-      <c r="AA71" s="247"/>
-      <c r="AB71" s="247"/>
-      <c r="AC71" s="247"/>
-      <c r="AD71" s="247"/>
-      <c r="AE71" s="247"/>
-      <c r="AF71" s="247"/>
-      <c r="AG71" s="253"/>
+      <c r="B71" s="240"/>
+      <c r="C71" s="242"/>
+      <c r="D71" s="242"/>
+      <c r="E71" s="242"/>
+      <c r="F71" s="242"/>
+      <c r="G71" s="242"/>
+      <c r="H71" s="242"/>
+      <c r="I71" s="247"/>
+      <c r="J71" s="248"/>
+      <c r="K71" s="248"/>
+      <c r="L71" s="248"/>
+      <c r="M71" s="248"/>
+      <c r="N71" s="248"/>
+      <c r="O71" s="248"/>
+      <c r="P71" s="248"/>
+      <c r="Q71" s="249"/>
+      <c r="R71" s="240"/>
+      <c r="S71" s="247"/>
+      <c r="T71" s="248"/>
+      <c r="U71" s="248"/>
+      <c r="V71" s="248"/>
+      <c r="W71" s="248"/>
+      <c r="X71" s="265"/>
+      <c r="Y71" s="247"/>
+      <c r="Z71" s="248"/>
+      <c r="AA71" s="248"/>
+      <c r="AB71" s="248"/>
+      <c r="AC71" s="248"/>
+      <c r="AD71" s="248"/>
+      <c r="AE71" s="248"/>
+      <c r="AF71" s="248"/>
+      <c r="AG71" s="249"/>
       <c r="AH71" s="26"/>
     </row>
     <row r="72" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
-      <c r="B72" s="239"/>
-      <c r="C72" s="258"/>
-      <c r="D72" s="258"/>
-      <c r="E72" s="258"/>
-      <c r="F72" s="258"/>
-      <c r="G72" s="258"/>
-      <c r="H72" s="258"/>
-      <c r="I72" s="246"/>
-      <c r="J72" s="247"/>
-      <c r="K72" s="247"/>
-      <c r="L72" s="247"/>
-      <c r="M72" s="247"/>
-      <c r="N72" s="247"/>
-      <c r="O72" s="247"/>
-      <c r="P72" s="247"/>
-      <c r="Q72" s="253"/>
-      <c r="R72" s="239"/>
-      <c r="S72" s="246"/>
-      <c r="T72" s="247"/>
-      <c r="U72" s="247"/>
-      <c r="V72" s="247"/>
-      <c r="W72" s="247"/>
-      <c r="X72" s="248"/>
-      <c r="Y72" s="246"/>
-      <c r="Z72" s="247"/>
-      <c r="AA72" s="247"/>
-      <c r="AB72" s="247"/>
-      <c r="AC72" s="247"/>
-      <c r="AD72" s="247"/>
-      <c r="AE72" s="247"/>
-      <c r="AF72" s="247"/>
-      <c r="AG72" s="253"/>
+      <c r="B72" s="240"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="242"/>
+      <c r="E72" s="242"/>
+      <c r="F72" s="242"/>
+      <c r="G72" s="242"/>
+      <c r="H72" s="242"/>
+      <c r="I72" s="247"/>
+      <c r="J72" s="248"/>
+      <c r="K72" s="248"/>
+      <c r="L72" s="248"/>
+      <c r="M72" s="248"/>
+      <c r="N72" s="248"/>
+      <c r="O72" s="248"/>
+      <c r="P72" s="248"/>
+      <c r="Q72" s="249"/>
+      <c r="R72" s="240"/>
+      <c r="S72" s="247"/>
+      <c r="T72" s="248"/>
+      <c r="U72" s="248"/>
+      <c r="V72" s="248"/>
+      <c r="W72" s="248"/>
+      <c r="X72" s="265"/>
+      <c r="Y72" s="247"/>
+      <c r="Z72" s="248"/>
+      <c r="AA72" s="248"/>
+      <c r="AB72" s="248"/>
+      <c r="AC72" s="248"/>
+      <c r="AD72" s="248"/>
+      <c r="AE72" s="248"/>
+      <c r="AF72" s="248"/>
+      <c r="AG72" s="249"/>
       <c r="AH72" s="26"/>
     </row>
     <row r="73" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
-      <c r="B73" s="239"/>
-      <c r="C73" s="258"/>
-      <c r="D73" s="258"/>
-      <c r="E73" s="258"/>
-      <c r="F73" s="258"/>
-      <c r="G73" s="258"/>
-      <c r="H73" s="258"/>
-      <c r="I73" s="246"/>
-      <c r="J73" s="247"/>
-      <c r="K73" s="247"/>
-      <c r="L73" s="247"/>
-      <c r="M73" s="247"/>
-      <c r="N73" s="247"/>
-      <c r="O73" s="247"/>
-      <c r="P73" s="247"/>
-      <c r="Q73" s="253"/>
-      <c r="R73" s="239"/>
-      <c r="S73" s="246"/>
-      <c r="T73" s="247"/>
-      <c r="U73" s="247"/>
-      <c r="V73" s="247"/>
-      <c r="W73" s="247"/>
-      <c r="X73" s="248"/>
-      <c r="Y73" s="246"/>
-      <c r="Z73" s="247"/>
-      <c r="AA73" s="247"/>
-      <c r="AB73" s="247"/>
-      <c r="AC73" s="247"/>
-      <c r="AD73" s="247"/>
-      <c r="AE73" s="247"/>
-      <c r="AF73" s="247"/>
-      <c r="AG73" s="253"/>
+      <c r="B73" s="240"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="242"/>
+      <c r="E73" s="242"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="242"/>
+      <c r="H73" s="242"/>
+      <c r="I73" s="247"/>
+      <c r="J73" s="248"/>
+      <c r="K73" s="248"/>
+      <c r="L73" s="248"/>
+      <c r="M73" s="248"/>
+      <c r="N73" s="248"/>
+      <c r="O73" s="248"/>
+      <c r="P73" s="248"/>
+      <c r="Q73" s="249"/>
+      <c r="R73" s="240"/>
+      <c r="S73" s="247"/>
+      <c r="T73" s="248"/>
+      <c r="U73" s="248"/>
+      <c r="V73" s="248"/>
+      <c r="W73" s="248"/>
+      <c r="X73" s="265"/>
+      <c r="Y73" s="247"/>
+      <c r="Z73" s="248"/>
+      <c r="AA73" s="248"/>
+      <c r="AB73" s="248"/>
+      <c r="AC73" s="248"/>
+      <c r="AD73" s="248"/>
+      <c r="AE73" s="248"/>
+      <c r="AF73" s="248"/>
+      <c r="AG73" s="249"/>
       <c r="AH73" s="26"/>
     </row>
     <row r="74" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
-      <c r="B74" s="239"/>
-      <c r="C74" s="258"/>
-      <c r="D74" s="258"/>
-      <c r="E74" s="258"/>
-      <c r="F74" s="258"/>
-      <c r="G74" s="258"/>
-      <c r="H74" s="258"/>
-      <c r="I74" s="246"/>
-      <c r="J74" s="247"/>
-      <c r="K74" s="247"/>
-      <c r="L74" s="247"/>
-      <c r="M74" s="247"/>
-      <c r="N74" s="247"/>
-      <c r="O74" s="247"/>
-      <c r="P74" s="247"/>
-      <c r="Q74" s="253"/>
-      <c r="R74" s="239"/>
-      <c r="S74" s="246"/>
-      <c r="T74" s="247"/>
-      <c r="U74" s="247"/>
-      <c r="V74" s="247"/>
-      <c r="W74" s="247"/>
-      <c r="X74" s="248"/>
-      <c r="Y74" s="246"/>
-      <c r="Z74" s="247"/>
-      <c r="AA74" s="247"/>
-      <c r="AB74" s="247"/>
-      <c r="AC74" s="247"/>
-      <c r="AD74" s="247"/>
-      <c r="AE74" s="247"/>
-      <c r="AF74" s="247"/>
-      <c r="AG74" s="253"/>
+      <c r="B74" s="240"/>
+      <c r="C74" s="242"/>
+      <c r="D74" s="242"/>
+      <c r="E74" s="242"/>
+      <c r="F74" s="242"/>
+      <c r="G74" s="242"/>
+      <c r="H74" s="242"/>
+      <c r="I74" s="247"/>
+      <c r="J74" s="248"/>
+      <c r="K74" s="248"/>
+      <c r="L74" s="248"/>
+      <c r="M74" s="248"/>
+      <c r="N74" s="248"/>
+      <c r="O74" s="248"/>
+      <c r="P74" s="248"/>
+      <c r="Q74" s="249"/>
+      <c r="R74" s="240"/>
+      <c r="S74" s="247"/>
+      <c r="T74" s="248"/>
+      <c r="U74" s="248"/>
+      <c r="V74" s="248"/>
+      <c r="W74" s="248"/>
+      <c r="X74" s="265"/>
+      <c r="Y74" s="247"/>
+      <c r="Z74" s="248"/>
+      <c r="AA74" s="248"/>
+      <c r="AB74" s="248"/>
+      <c r="AC74" s="248"/>
+      <c r="AD74" s="248"/>
+      <c r="AE74" s="248"/>
+      <c r="AF74" s="248"/>
+      <c r="AG74" s="249"/>
       <c r="AH74" s="26"/>
     </row>
     <row r="75" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
-      <c r="B75" s="239"/>
-      <c r="C75" s="258"/>
-      <c r="D75" s="258"/>
-      <c r="E75" s="258"/>
-      <c r="F75" s="258"/>
-      <c r="G75" s="258"/>
-      <c r="H75" s="258"/>
-      <c r="I75" s="246"/>
-      <c r="J75" s="247"/>
-      <c r="K75" s="247"/>
-      <c r="L75" s="247"/>
-      <c r="M75" s="247"/>
-      <c r="N75" s="247"/>
-      <c r="O75" s="247"/>
-      <c r="P75" s="247"/>
-      <c r="Q75" s="253"/>
-      <c r="R75" s="239"/>
-      <c r="S75" s="246"/>
-      <c r="T75" s="247"/>
-      <c r="U75" s="247"/>
-      <c r="V75" s="247"/>
-      <c r="W75" s="247"/>
-      <c r="X75" s="248"/>
-      <c r="Y75" s="246"/>
-      <c r="Z75" s="247"/>
-      <c r="AA75" s="247"/>
-      <c r="AB75" s="247"/>
-      <c r="AC75" s="247"/>
-      <c r="AD75" s="247"/>
-      <c r="AE75" s="247"/>
-      <c r="AF75" s="247"/>
-      <c r="AG75" s="253"/>
+      <c r="B75" s="240"/>
+      <c r="C75" s="242"/>
+      <c r="D75" s="242"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="247"/>
+      <c r="J75" s="248"/>
+      <c r="K75" s="248"/>
+      <c r="L75" s="248"/>
+      <c r="M75" s="248"/>
+      <c r="N75" s="248"/>
+      <c r="O75" s="248"/>
+      <c r="P75" s="248"/>
+      <c r="Q75" s="249"/>
+      <c r="R75" s="240"/>
+      <c r="S75" s="247"/>
+      <c r="T75" s="248"/>
+      <c r="U75" s="248"/>
+      <c r="V75" s="248"/>
+      <c r="W75" s="248"/>
+      <c r="X75" s="265"/>
+      <c r="Y75" s="247"/>
+      <c r="Z75" s="248"/>
+      <c r="AA75" s="248"/>
+      <c r="AB75" s="248"/>
+      <c r="AC75" s="248"/>
+      <c r="AD75" s="248"/>
+      <c r="AE75" s="248"/>
+      <c r="AF75" s="248"/>
+      <c r="AG75" s="249"/>
       <c r="AH75" s="26"/>
     </row>
     <row r="76" spans="1:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
-      <c r="B76" s="240"/>
-      <c r="C76" s="259"/>
-      <c r="D76" s="259"/>
-      <c r="E76" s="259"/>
-      <c r="F76" s="259"/>
-      <c r="G76" s="259"/>
-      <c r="H76" s="259"/>
-      <c r="I76" s="249"/>
-      <c r="J76" s="250"/>
-      <c r="K76" s="250"/>
-      <c r="L76" s="250"/>
-      <c r="M76" s="250"/>
-      <c r="N76" s="250"/>
-      <c r="O76" s="250"/>
-      <c r="P76" s="250"/>
-      <c r="Q76" s="254"/>
-      <c r="R76" s="240"/>
-      <c r="S76" s="249"/>
-      <c r="T76" s="250"/>
-      <c r="U76" s="250"/>
-      <c r="V76" s="250"/>
-      <c r="W76" s="250"/>
-      <c r="X76" s="251"/>
-      <c r="Y76" s="249"/>
-      <c r="Z76" s="250"/>
-      <c r="AA76" s="250"/>
-      <c r="AB76" s="250"/>
-      <c r="AC76" s="250"/>
-      <c r="AD76" s="250"/>
-      <c r="AE76" s="250"/>
-      <c r="AF76" s="250"/>
-      <c r="AG76" s="254"/>
+      <c r="B76" s="241"/>
+      <c r="C76" s="243"/>
+      <c r="D76" s="243"/>
+      <c r="E76" s="243"/>
+      <c r="F76" s="243"/>
+      <c r="G76" s="243"/>
+      <c r="H76" s="243"/>
+      <c r="I76" s="250"/>
+      <c r="J76" s="251"/>
+      <c r="K76" s="251"/>
+      <c r="L76" s="251"/>
+      <c r="M76" s="251"/>
+      <c r="N76" s="251"/>
+      <c r="O76" s="251"/>
+      <c r="P76" s="251"/>
+      <c r="Q76" s="252"/>
+      <c r="R76" s="241"/>
+      <c r="S76" s="250"/>
+      <c r="T76" s="251"/>
+      <c r="U76" s="251"/>
+      <c r="V76" s="251"/>
+      <c r="W76" s="251"/>
+      <c r="X76" s="266"/>
+      <c r="Y76" s="250"/>
+      <c r="Z76" s="251"/>
+      <c r="AA76" s="251"/>
+      <c r="AB76" s="251"/>
+      <c r="AC76" s="251"/>
+      <c r="AD76" s="251"/>
+      <c r="AE76" s="251"/>
+      <c r="AF76" s="251"/>
+      <c r="AG76" s="252"/>
       <c r="AH76" s="26"/>
     </row>
     <row r="77" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19565,21 +19572,23 @@
     <mergeCell ref="Y60:AG60"/>
     <mergeCell ref="S61:X76"/>
     <mergeCell ref="Y61:AG76"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="I60:Q60"/>
+    <mergeCell ref="C61:H76"/>
+    <mergeCell ref="I61:Q76"/>
+    <mergeCell ref="L5:AE5"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="V53:V58"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="S60:X60"/>
+    <mergeCell ref="R71:R72"/>
     <mergeCell ref="R61:R62"/>
     <mergeCell ref="R63:R64"/>
     <mergeCell ref="R65:R66"/>
     <mergeCell ref="R67:R68"/>
     <mergeCell ref="R73:R74"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="V53:V58"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="S60:X60"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B64"/>
@@ -19588,11 +19597,6 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="I60:Q60"/>
-    <mergeCell ref="C61:H76"/>
-    <mergeCell ref="I61:Q76"/>
-    <mergeCell ref="L5:AE5"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:U45"/>
@@ -19608,6 +19612,9 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="O4:AC4"/>
     <mergeCell ref="B4:C4"/>
@@ -19641,1571 +19648,1571 @@
   <sheetData>
     <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="H1" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="K1" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="L1" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="266"/>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266" t="str">
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267" t="str">
         <f>IF(COUNT(Q2:R2),Q2-R2,"")</f>
         <v/>
       </c>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="267"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="266"/>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
+      <c r="A3" s="267"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="267"/>
+      <c r="K3" s="267"/>
+      <c r="L3" s="267"/>
+      <c r="M3" s="267"/>
+      <c r="N3" s="267"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="267"/>
+      <c r="Q3" s="267"/>
+      <c r="R3" s="267"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="266"/>
-      <c r="B4" s="266"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="266"/>
-      <c r="M4" s="266"/>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
-      <c r="P4" s="266"/>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="266"/>
+      <c r="A4" s="267"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
+      <c r="K4" s="267"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="267"/>
+      <c r="O4" s="267"/>
+      <c r="P4" s="267"/>
+      <c r="Q4" s="267"/>
+      <c r="R4" s="267"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="266"/>
-      <c r="B5" s="266"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="266"/>
-      <c r="J5" s="266"/>
-      <c r="K5" s="266"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266" t="str">
+      <c r="A5" s="267"/>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="267" t="str">
         <f t="shared" ref="P5" si="0">IF(COUNT(Q5:R5),Q5-R5,"")</f>
         <v/>
       </c>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="267"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="266"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
-      <c r="G6" s="266"/>
-      <c r="H6" s="266"/>
-      <c r="I6" s="266"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="266"/>
-      <c r="M6" s="266"/>
-      <c r="N6" s="266"/>
-      <c r="O6" s="266"/>
-      <c r="P6" s="266"/>
-      <c r="Q6" s="266"/>
-      <c r="R6" s="266"/>
+      <c r="A6" s="267"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="267"/>
+      <c r="K6" s="267"/>
+      <c r="L6" s="267"/>
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="266"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="266"/>
-      <c r="M7" s="266"/>
-      <c r="N7" s="266"/>
-      <c r="O7" s="266"/>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="266"/>
-      <c r="R7" s="266"/>
+      <c r="A7" s="267"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="267"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="267"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="266"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="266"/>
-      <c r="K8" s="266"/>
-      <c r="L8" s="266"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="266"/>
-      <c r="O8" s="266"/>
-      <c r="P8" s="266" t="str">
+      <c r="A8" s="267"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="267"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="267"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="267"/>
+      <c r="P8" s="267" t="str">
         <f t="shared" ref="P8" si="1">IF(COUNT(Q8:R8),Q8-R8,"")</f>
         <v/>
       </c>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="266"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="267"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="266"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="266"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="266"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="266"/>
-      <c r="P9" s="266"/>
-      <c r="Q9" s="266"/>
-      <c r="R9" s="266"/>
+      <c r="A9" s="267"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="267"/>
+      <c r="J9" s="267"/>
+      <c r="K9" s="267"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="267"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="266"/>
-      <c r="J10" s="266"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="266"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="266"/>
-      <c r="O10" s="266"/>
-      <c r="P10" s="266"/>
-      <c r="Q10" s="266"/>
-      <c r="R10" s="266"/>
+      <c r="A10" s="267"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="267"/>
+      <c r="J10" s="267"/>
+      <c r="K10" s="267"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="267"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="267"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="267"/>
+      <c r="R10" s="267"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="266"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="266"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="266" t="str">
+      <c r="A11" s="267"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="267"/>
+      <c r="J11" s="267"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="267"/>
+      <c r="N11" s="267"/>
+      <c r="O11" s="267"/>
+      <c r="P11" s="267" t="str">
         <f t="shared" ref="P11" si="2">IF(COUNT(Q11:R11),Q11-R11,"")</f>
         <v/>
       </c>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="266"/>
+      <c r="Q11" s="267"/>
+      <c r="R11" s="267"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="266"/>
-      <c r="H12" s="266"/>
-      <c r="I12" s="266"/>
-      <c r="J12" s="266"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="266"/>
-      <c r="M12" s="266"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="266"/>
-      <c r="Q12" s="266"/>
-      <c r="R12" s="266"/>
+      <c r="A12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="267"/>
+      <c r="J12" s="267"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="267"/>
+      <c r="N12" s="267"/>
+      <c r="O12" s="267"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="267"/>
+      <c r="R12" s="267"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="266"/>
-      <c r="B13" s="266"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="266"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
-      <c r="M13" s="266"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="266"/>
-      <c r="Q13" s="266"/>
-      <c r="R13" s="266"/>
+      <c r="A13" s="267"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="267"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="267"/>
+      <c r="L13" s="267"/>
+      <c r="M13" s="267"/>
+      <c r="N13" s="267"/>
+      <c r="O13" s="267"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="267"/>
+      <c r="R13" s="267"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="266"/>
-      <c r="B14" s="266"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="266"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="266"/>
-      <c r="K14" s="266"/>
-      <c r="L14" s="266"/>
-      <c r="M14" s="266"/>
-      <c r="N14" s="266"/>
-      <c r="O14" s="266"/>
-      <c r="P14" s="266" t="str">
+      <c r="A14" s="267"/>
+      <c r="B14" s="267"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="267"/>
+      <c r="M14" s="267"/>
+      <c r="N14" s="267"/>
+      <c r="O14" s="267"/>
+      <c r="P14" s="267" t="str">
         <f t="shared" ref="P14" si="3">IF(COUNT(Q14:R14),Q14-R14,"")</f>
         <v/>
       </c>
-      <c r="Q14" s="266"/>
-      <c r="R14" s="266"/>
+      <c r="Q14" s="267"/>
+      <c r="R14" s="267"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="266"/>
-      <c r="B15" s="266"/>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="266"/>
-      <c r="M15" s="266"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
-      <c r="P15" s="266"/>
-      <c r="Q15" s="266"/>
-      <c r="R15" s="266"/>
+      <c r="A15" s="267"/>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="267"/>
+      <c r="J15" s="267"/>
+      <c r="K15" s="267"/>
+      <c r="L15" s="267"/>
+      <c r="M15" s="267"/>
+      <c r="N15" s="267"/>
+      <c r="O15" s="267"/>
+      <c r="P15" s="267"/>
+      <c r="Q15" s="267"/>
+      <c r="R15" s="267"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="266"/>
-      <c r="B16" s="266"/>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="266"/>
-      <c r="R16" s="266"/>
+      <c r="A16" s="267"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="267"/>
+      <c r="O16" s="267"/>
+      <c r="P16" s="267"/>
+      <c r="Q16" s="267"/>
+      <c r="R16" s="267"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="266"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="266"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="266"/>
-      <c r="K17" s="266"/>
-      <c r="L17" s="266"/>
-      <c r="M17" s="266"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="266"/>
-      <c r="P17" s="266" t="str">
+      <c r="A17" s="267"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="267"/>
+      <c r="H17" s="267"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="267"/>
+      <c r="K17" s="267"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="267"/>
+      <c r="O17" s="267"/>
+      <c r="P17" s="267" t="str">
         <f t="shared" ref="P17" si="4">IF(COUNT(Q17:R17),Q17-R17,"")</f>
         <v/>
       </c>
-      <c r="Q17" s="266"/>
-      <c r="R17" s="266"/>
+      <c r="Q17" s="267"/>
+      <c r="R17" s="267"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="266"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="266"/>
-      <c r="K18" s="266"/>
-      <c r="L18" s="266"/>
-      <c r="M18" s="266"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="266"/>
-      <c r="R18" s="266"/>
+      <c r="A18" s="267"/>
+      <c r="B18" s="267"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="267"/>
+      <c r="J18" s="267"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="267"/>
+      <c r="N18" s="267"/>
+      <c r="O18" s="267"/>
+      <c r="P18" s="267"/>
+      <c r="Q18" s="267"/>
+      <c r="R18" s="267"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="266"/>
-      <c r="B19" s="266"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="266"/>
-      <c r="E19" s="266"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="266"/>
-      <c r="K19" s="266"/>
-      <c r="L19" s="266"/>
-      <c r="M19" s="266"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="266"/>
-      <c r="P19" s="266"/>
-      <c r="Q19" s="266"/>
-      <c r="R19" s="266"/>
+      <c r="A19" s="267"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="267"/>
+      <c r="J19" s="267"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="267"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="267"/>
+      <c r="O19" s="267"/>
+      <c r="P19" s="267"/>
+      <c r="Q19" s="267"/>
+      <c r="R19" s="267"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="266"/>
-      <c r="B20" s="266"/>
-      <c r="C20" s="266"/>
-      <c r="D20" s="266"/>
-      <c r="E20" s="266"/>
-      <c r="F20" s="266"/>
-      <c r="G20" s="266"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="266"/>
-      <c r="J20" s="266"/>
-      <c r="K20" s="266"/>
-      <c r="L20" s="266"/>
-      <c r="M20" s="266"/>
-      <c r="N20" s="266"/>
-      <c r="O20" s="266"/>
-      <c r="P20" s="266" t="str">
+      <c r="A20" s="267"/>
+      <c r="B20" s="267"/>
+      <c r="C20" s="267"/>
+      <c r="D20" s="267"/>
+      <c r="E20" s="267"/>
+      <c r="F20" s="267"/>
+      <c r="G20" s="267"/>
+      <c r="H20" s="267"/>
+      <c r="I20" s="267"/>
+      <c r="J20" s="267"/>
+      <c r="K20" s="267"/>
+      <c r="L20" s="267"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="267"/>
+      <c r="O20" s="267"/>
+      <c r="P20" s="267" t="str">
         <f t="shared" ref="P20" si="5">IF(COUNT(Q20:R20),Q20-R20,"")</f>
         <v/>
       </c>
-      <c r="Q20" s="266"/>
-      <c r="R20" s="266"/>
+      <c r="Q20" s="267"/>
+      <c r="R20" s="267"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="266"/>
-      <c r="B21" s="266"/>
-      <c r="C21" s="266"/>
-      <c r="D21" s="266"/>
-      <c r="E21" s="266"/>
-      <c r="F21" s="266"/>
-      <c r="G21" s="266"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="266"/>
-      <c r="K21" s="266"/>
-      <c r="L21" s="266"/>
-      <c r="M21" s="266"/>
-      <c r="N21" s="266"/>
-      <c r="O21" s="266"/>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="266"/>
-      <c r="R21" s="266"/>
+      <c r="A21" s="267"/>
+      <c r="B21" s="267"/>
+      <c r="C21" s="267"/>
+      <c r="D21" s="267"/>
+      <c r="E21" s="267"/>
+      <c r="F21" s="267"/>
+      <c r="G21" s="267"/>
+      <c r="H21" s="267"/>
+      <c r="I21" s="267"/>
+      <c r="J21" s="267"/>
+      <c r="K21" s="267"/>
+      <c r="L21" s="267"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="267"/>
+      <c r="O21" s="267"/>
+      <c r="P21" s="267"/>
+      <c r="Q21" s="267"/>
+      <c r="R21" s="267"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="266"/>
-      <c r="B22" s="266"/>
-      <c r="C22" s="266"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="266"/>
-      <c r="F22" s="266"/>
-      <c r="G22" s="266"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="266"/>
-      <c r="J22" s="266"/>
-      <c r="K22" s="266"/>
-      <c r="L22" s="266"/>
-      <c r="M22" s="266"/>
-      <c r="N22" s="266"/>
-      <c r="O22" s="266"/>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="266"/>
-      <c r="R22" s="266"/>
+      <c r="A22" s="267"/>
+      <c r="B22" s="267"/>
+      <c r="C22" s="267"/>
+      <c r="D22" s="267"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="267"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="267"/>
+      <c r="J22" s="267"/>
+      <c r="K22" s="267"/>
+      <c r="L22" s="267"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="267"/>
+      <c r="O22" s="267"/>
+      <c r="P22" s="267"/>
+      <c r="Q22" s="267"/>
+      <c r="R22" s="267"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="266"/>
-      <c r="B23" s="266"/>
-      <c r="C23" s="266"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="266"/>
-      <c r="F23" s="266"/>
-      <c r="G23" s="266"/>
-      <c r="H23" s="266"/>
-      <c r="I23" s="266"/>
-      <c r="J23" s="266"/>
-      <c r="K23" s="266"/>
-      <c r="L23" s="266"/>
-      <c r="M23" s="266"/>
-      <c r="N23" s="266"/>
-      <c r="O23" s="266"/>
-      <c r="P23" s="266" t="str">
+      <c r="A23" s="267"/>
+      <c r="B23" s="267"/>
+      <c r="C23" s="267"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="267"/>
+      <c r="F23" s="267"/>
+      <c r="G23" s="267"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="267"/>
+      <c r="J23" s="267"/>
+      <c r="K23" s="267"/>
+      <c r="L23" s="267"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="267"/>
+      <c r="O23" s="267"/>
+      <c r="P23" s="267" t="str">
         <f t="shared" ref="P23" si="6">IF(COUNT(Q23:R23),Q23-R23,"")</f>
         <v/>
       </c>
-      <c r="Q23" s="266"/>
-      <c r="R23" s="266"/>
+      <c r="Q23" s="267"/>
+      <c r="R23" s="267"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="266"/>
-      <c r="B24" s="266"/>
-      <c r="C24" s="266"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="266"/>
-      <c r="F24" s="266"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="266"/>
-      <c r="J24" s="266"/>
-      <c r="K24" s="266"/>
-      <c r="L24" s="266"/>
-      <c r="M24" s="266"/>
-      <c r="N24" s="266"/>
-      <c r="O24" s="266"/>
-      <c r="P24" s="266"/>
-      <c r="Q24" s="266"/>
-      <c r="R24" s="266"/>
+      <c r="A24" s="267"/>
+      <c r="B24" s="267"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="267"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
+      <c r="J24" s="267"/>
+      <c r="K24" s="267"/>
+      <c r="L24" s="267"/>
+      <c r="M24" s="267"/>
+      <c r="N24" s="267"/>
+      <c r="O24" s="267"/>
+      <c r="P24" s="267"/>
+      <c r="Q24" s="267"/>
+      <c r="R24" s="267"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="266"/>
-      <c r="B25" s="266"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="266"/>
-      <c r="F25" s="266"/>
-      <c r="G25" s="266"/>
-      <c r="H25" s="266"/>
-      <c r="I25" s="266"/>
-      <c r="J25" s="266"/>
-      <c r="K25" s="266"/>
-      <c r="L25" s="266"/>
-      <c r="M25" s="266"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
-      <c r="P25" s="266"/>
-      <c r="Q25" s="266"/>
-      <c r="R25" s="266"/>
+      <c r="A25" s="267"/>
+      <c r="B25" s="267"/>
+      <c r="C25" s="267"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="267"/>
+      <c r="G25" s="267"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="267"/>
+      <c r="M25" s="267"/>
+      <c r="N25" s="267"/>
+      <c r="O25" s="267"/>
+      <c r="P25" s="267"/>
+      <c r="Q25" s="267"/>
+      <c r="R25" s="267"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="266"/>
-      <c r="B26" s="266"/>
-      <c r="C26" s="266"/>
-      <c r="D26" s="266"/>
-      <c r="E26" s="266"/>
-      <c r="F26" s="266"/>
-      <c r="G26" s="266"/>
-      <c r="H26" s="266"/>
-      <c r="I26" s="266"/>
-      <c r="J26" s="266"/>
-      <c r="K26" s="266"/>
-      <c r="L26" s="266"/>
-      <c r="M26" s="266"/>
-      <c r="N26" s="266"/>
-      <c r="O26" s="266"/>
-      <c r="P26" s="266" t="str">
+      <c r="A26" s="267"/>
+      <c r="B26" s="267"/>
+      <c r="C26" s="267"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="267"/>
+      <c r="F26" s="267"/>
+      <c r="G26" s="267"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="267"/>
+      <c r="J26" s="267"/>
+      <c r="K26" s="267"/>
+      <c r="L26" s="267"/>
+      <c r="M26" s="267"/>
+      <c r="N26" s="267"/>
+      <c r="O26" s="267"/>
+      <c r="P26" s="267" t="str">
         <f t="shared" ref="P26" si="7">IF(COUNT(Q26:R26),Q26-R26,"")</f>
         <v/>
       </c>
-      <c r="Q26" s="266"/>
-      <c r="R26" s="266"/>
+      <c r="Q26" s="267"/>
+      <c r="R26" s="267"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="266"/>
-      <c r="B27" s="266"/>
-      <c r="C27" s="266"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="266"/>
-      <c r="F27" s="266"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="266"/>
-      <c r="I27" s="266"/>
-      <c r="J27" s="266"/>
-      <c r="K27" s="266"/>
-      <c r="L27" s="266"/>
-      <c r="M27" s="266"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="266"/>
-      <c r="P27" s="266"/>
-      <c r="Q27" s="266"/>
-      <c r="R27" s="266"/>
+      <c r="A27" s="267"/>
+      <c r="B27" s="267"/>
+      <c r="C27" s="267"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="267"/>
+      <c r="F27" s="267"/>
+      <c r="G27" s="267"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="267"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="267"/>
+      <c r="M27" s="267"/>
+      <c r="N27" s="267"/>
+      <c r="O27" s="267"/>
+      <c r="P27" s="267"/>
+      <c r="Q27" s="267"/>
+      <c r="R27" s="267"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="266"/>
-      <c r="B28" s="266"/>
-      <c r="C28" s="266"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="266"/>
-      <c r="J28" s="266"/>
-      <c r="K28" s="266"/>
-      <c r="L28" s="266"/>
-      <c r="M28" s="266"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="266"/>
-      <c r="P28" s="266"/>
-      <c r="Q28" s="266"/>
-      <c r="R28" s="266"/>
+      <c r="A28" s="267"/>
+      <c r="B28" s="267"/>
+      <c r="C28" s="267"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="267"/>
+      <c r="F28" s="267"/>
+      <c r="G28" s="267"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="267"/>
+      <c r="J28" s="267"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="267"/>
+      <c r="M28" s="267"/>
+      <c r="N28" s="267"/>
+      <c r="O28" s="267"/>
+      <c r="P28" s="267"/>
+      <c r="Q28" s="267"/>
+      <c r="R28" s="267"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="266"/>
-      <c r="B29" s="266"/>
-      <c r="C29" s="266"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266"/>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
-      <c r="P29" s="266" t="str">
+      <c r="A29" s="267"/>
+      <c r="B29" s="267"/>
+      <c r="C29" s="267"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="267"/>
+      <c r="F29" s="267"/>
+      <c r="G29" s="267"/>
+      <c r="H29" s="267"/>
+      <c r="I29" s="267"/>
+      <c r="J29" s="267"/>
+      <c r="K29" s="267"/>
+      <c r="L29" s="267"/>
+      <c r="M29" s="267"/>
+      <c r="N29" s="267"/>
+      <c r="O29" s="267"/>
+      <c r="P29" s="267" t="str">
         <f t="shared" ref="P29" si="8">IF(COUNT(Q29:R29),Q29-R29,"")</f>
         <v/>
       </c>
-      <c r="Q29" s="266"/>
-      <c r="R29" s="266"/>
+      <c r="Q29" s="267"/>
+      <c r="R29" s="267"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="266"/>
-      <c r="B30" s="266"/>
-      <c r="C30" s="266"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="266"/>
-      <c r="J30" s="266"/>
-      <c r="K30" s="266"/>
-      <c r="L30" s="266"/>
-      <c r="M30" s="266"/>
-      <c r="N30" s="266"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="266"/>
-      <c r="R30" s="266"/>
+      <c r="A30" s="267"/>
+      <c r="B30" s="267"/>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="267"/>
+      <c r="K30" s="267"/>
+      <c r="L30" s="267"/>
+      <c r="M30" s="267"/>
+      <c r="N30" s="267"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="267"/>
+      <c r="R30" s="267"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="266"/>
-      <c r="B31" s="266"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="266"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="266"/>
-      <c r="J31" s="266"/>
-      <c r="K31" s="266"/>
-      <c r="L31" s="266"/>
-      <c r="M31" s="266"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="266"/>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="266"/>
-      <c r="R31" s="266"/>
+      <c r="A31" s="267"/>
+      <c r="B31" s="267"/>
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="267"/>
+      <c r="G31" s="267"/>
+      <c r="H31" s="267"/>
+      <c r="I31" s="267"/>
+      <c r="J31" s="267"/>
+      <c r="K31" s="267"/>
+      <c r="L31" s="267"/>
+      <c r="M31" s="267"/>
+      <c r="N31" s="267"/>
+      <c r="O31" s="267"/>
+      <c r="P31" s="267"/>
+      <c r="Q31" s="267"/>
+      <c r="R31" s="267"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="266"/>
-      <c r="B32" s="266"/>
-      <c r="C32" s="266"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="266"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="266"/>
-      <c r="H32" s="266"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="266"/>
-      <c r="K32" s="266"/>
-      <c r="L32" s="266"/>
-      <c r="M32" s="266"/>
-      <c r="N32" s="266"/>
-      <c r="O32" s="266"/>
-      <c r="P32" s="266" t="str">
+      <c r="A32" s="267"/>
+      <c r="B32" s="267"/>
+      <c r="C32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="267"/>
+      <c r="I32" s="267"/>
+      <c r="J32" s="267"/>
+      <c r="K32" s="267"/>
+      <c r="L32" s="267"/>
+      <c r="M32" s="267"/>
+      <c r="N32" s="267"/>
+      <c r="O32" s="267"/>
+      <c r="P32" s="267" t="str">
         <f t="shared" ref="P32" si="9">IF(COUNT(Q32:R32),Q32-R32,"")</f>
         <v/>
       </c>
-      <c r="Q32" s="266"/>
-      <c r="R32" s="266"/>
+      <c r="Q32" s="267"/>
+      <c r="R32" s="267"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="266"/>
-      <c r="B33" s="266"/>
-      <c r="C33" s="266"/>
-      <c r="D33" s="266"/>
-      <c r="E33" s="266"/>
-      <c r="F33" s="266"/>
-      <c r="G33" s="266"/>
-      <c r="H33" s="266"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="266"/>
-      <c r="K33" s="266"/>
-      <c r="L33" s="266"/>
-      <c r="M33" s="266"/>
-      <c r="N33" s="266"/>
-      <c r="O33" s="266"/>
-      <c r="P33" s="266"/>
-      <c r="Q33" s="266"/>
-      <c r="R33" s="266"/>
+      <c r="A33" s="267"/>
+      <c r="B33" s="267"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="267"/>
+      <c r="G33" s="267"/>
+      <c r="H33" s="267"/>
+      <c r="I33" s="267"/>
+      <c r="J33" s="267"/>
+      <c r="K33" s="267"/>
+      <c r="L33" s="267"/>
+      <c r="M33" s="267"/>
+      <c r="N33" s="267"/>
+      <c r="O33" s="267"/>
+      <c r="P33" s="267"/>
+      <c r="Q33" s="267"/>
+      <c r="R33" s="267"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="266"/>
-      <c r="B34" s="266"/>
-      <c r="C34" s="266"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="266"/>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="266"/>
-      <c r="J34" s="266"/>
-      <c r="K34" s="266"/>
-      <c r="L34" s="266"/>
-      <c r="M34" s="266"/>
-      <c r="N34" s="266"/>
-      <c r="O34" s="266"/>
-      <c r="P34" s="266"/>
-      <c r="Q34" s="266"/>
-      <c r="R34" s="266"/>
+      <c r="A34" s="267"/>
+      <c r="B34" s="267"/>
+      <c r="C34" s="267"/>
+      <c r="D34" s="267"/>
+      <c r="E34" s="267"/>
+      <c r="F34" s="267"/>
+      <c r="G34" s="267"/>
+      <c r="H34" s="267"/>
+      <c r="I34" s="267"/>
+      <c r="J34" s="267"/>
+      <c r="K34" s="267"/>
+      <c r="L34" s="267"/>
+      <c r="M34" s="267"/>
+      <c r="N34" s="267"/>
+      <c r="O34" s="267"/>
+      <c r="P34" s="267"/>
+      <c r="Q34" s="267"/>
+      <c r="R34" s="267"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="266"/>
-      <c r="B35" s="266"/>
-      <c r="C35" s="266"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="266"/>
-      <c r="H35" s="266"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="266"/>
-      <c r="K35" s="266"/>
-      <c r="L35" s="266"/>
-      <c r="M35" s="266"/>
-      <c r="N35" s="266"/>
-      <c r="O35" s="266"/>
-      <c r="P35" s="266" t="str">
+      <c r="A35" s="267"/>
+      <c r="B35" s="267"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
+      <c r="H35" s="267"/>
+      <c r="I35" s="267"/>
+      <c r="J35" s="267"/>
+      <c r="K35" s="267"/>
+      <c r="L35" s="267"/>
+      <c r="M35" s="267"/>
+      <c r="N35" s="267"/>
+      <c r="O35" s="267"/>
+      <c r="P35" s="267" t="str">
         <f t="shared" ref="P35" si="10">IF(COUNT(Q35:R35),Q35-R35,"")</f>
         <v/>
       </c>
-      <c r="Q35" s="266"/>
-      <c r="R35" s="266"/>
+      <c r="Q35" s="267"/>
+      <c r="R35" s="267"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="266"/>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="266"/>
-      <c r="G36" s="266"/>
-      <c r="H36" s="266"/>
-      <c r="I36" s="266"/>
-      <c r="J36" s="266"/>
-      <c r="K36" s="266"/>
-      <c r="L36" s="266"/>
-      <c r="M36" s="266"/>
-      <c r="N36" s="266"/>
-      <c r="O36" s="266"/>
-      <c r="P36" s="266"/>
-      <c r="Q36" s="266"/>
-      <c r="R36" s="266"/>
+      <c r="A36" s="267"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="267"/>
+      <c r="I36" s="267"/>
+      <c r="J36" s="267"/>
+      <c r="K36" s="267"/>
+      <c r="L36" s="267"/>
+      <c r="M36" s="267"/>
+      <c r="N36" s="267"/>
+      <c r="O36" s="267"/>
+      <c r="P36" s="267"/>
+      <c r="Q36" s="267"/>
+      <c r="R36" s="267"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="266"/>
-      <c r="B37" s="266"/>
-      <c r="C37" s="266"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="266"/>
-      <c r="G37" s="266"/>
-      <c r="H37" s="266"/>
-      <c r="I37" s="266"/>
-      <c r="J37" s="266"/>
-      <c r="K37" s="266"/>
-      <c r="L37" s="266"/>
-      <c r="M37" s="266"/>
-      <c r="N37" s="266"/>
-      <c r="O37" s="266"/>
-      <c r="P37" s="266"/>
-      <c r="Q37" s="266"/>
-      <c r="R37" s="266"/>
+      <c r="A37" s="267"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="267"/>
+      <c r="D37" s="267"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="267"/>
+      <c r="G37" s="267"/>
+      <c r="H37" s="267"/>
+      <c r="I37" s="267"/>
+      <c r="J37" s="267"/>
+      <c r="K37" s="267"/>
+      <c r="L37" s="267"/>
+      <c r="M37" s="267"/>
+      <c r="N37" s="267"/>
+      <c r="O37" s="267"/>
+      <c r="P37" s="267"/>
+      <c r="Q37" s="267"/>
+      <c r="R37" s="267"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="266"/>
-      <c r="B38" s="266"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="266"/>
-      <c r="F38" s="266"/>
-      <c r="G38" s="266"/>
-      <c r="H38" s="266"/>
-      <c r="I38" s="266"/>
-      <c r="J38" s="266"/>
-      <c r="K38" s="266"/>
-      <c r="L38" s="266"/>
-      <c r="M38" s="266"/>
-      <c r="N38" s="266"/>
-      <c r="O38" s="266"/>
-      <c r="P38" s="266" t="str">
+      <c r="A38" s="267"/>
+      <c r="B38" s="267"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="267"/>
+      <c r="K38" s="267"/>
+      <c r="L38" s="267"/>
+      <c r="M38" s="267"/>
+      <c r="N38" s="267"/>
+      <c r="O38" s="267"/>
+      <c r="P38" s="267" t="str">
         <f t="shared" ref="P38" si="11">IF(COUNT(Q38:R38),Q38-R38,"")</f>
         <v/>
       </c>
-      <c r="Q38" s="266"/>
-      <c r="R38" s="266"/>
+      <c r="Q38" s="267"/>
+      <c r="R38" s="267"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="266"/>
-      <c r="B39" s="266"/>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
-      <c r="E39" s="266"/>
-      <c r="F39" s="266"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="266"/>
-      <c r="I39" s="266"/>
-      <c r="J39" s="266"/>
-      <c r="K39" s="266"/>
-      <c r="L39" s="266"/>
-      <c r="M39" s="266"/>
-      <c r="N39" s="266"/>
-      <c r="O39" s="266"/>
-      <c r="P39" s="266"/>
-      <c r="Q39" s="266"/>
-      <c r="R39" s="266"/>
+      <c r="A39" s="267"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="267"/>
+      <c r="I39" s="267"/>
+      <c r="J39" s="267"/>
+      <c r="K39" s="267"/>
+      <c r="L39" s="267"/>
+      <c r="M39" s="267"/>
+      <c r="N39" s="267"/>
+      <c r="O39" s="267"/>
+      <c r="P39" s="267"/>
+      <c r="Q39" s="267"/>
+      <c r="R39" s="267"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="266"/>
-      <c r="B40" s="266"/>
-      <c r="C40" s="266"/>
-      <c r="D40" s="266"/>
-      <c r="E40" s="266"/>
-      <c r="F40" s="266"/>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="266"/>
-      <c r="K40" s="266"/>
-      <c r="L40" s="266"/>
-      <c r="M40" s="266"/>
-      <c r="N40" s="266"/>
-      <c r="O40" s="266"/>
-      <c r="P40" s="266"/>
-      <c r="Q40" s="266"/>
-      <c r="R40" s="266"/>
+      <c r="A40" s="267"/>
+      <c r="B40" s="267"/>
+      <c r="C40" s="267"/>
+      <c r="D40" s="267"/>
+      <c r="E40" s="267"/>
+      <c r="F40" s="267"/>
+      <c r="G40" s="267"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="267"/>
+      <c r="J40" s="267"/>
+      <c r="K40" s="267"/>
+      <c r="L40" s="267"/>
+      <c r="M40" s="267"/>
+      <c r="N40" s="267"/>
+      <c r="O40" s="267"/>
+      <c r="P40" s="267"/>
+      <c r="Q40" s="267"/>
+      <c r="R40" s="267"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="266"/>
-      <c r="B41" s="266"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="266"/>
-      <c r="E41" s="266"/>
-      <c r="F41" s="266"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="266"/>
-      <c r="I41" s="266"/>
-      <c r="J41" s="266"/>
-      <c r="K41" s="266"/>
-      <c r="L41" s="266"/>
-      <c r="M41" s="266"/>
-      <c r="N41" s="266"/>
-      <c r="O41" s="266"/>
-      <c r="P41" s="266" t="str">
+      <c r="A41" s="267"/>
+      <c r="B41" s="267"/>
+      <c r="C41" s="267"/>
+      <c r="D41" s="267"/>
+      <c r="E41" s="267"/>
+      <c r="F41" s="267"/>
+      <c r="G41" s="267"/>
+      <c r="H41" s="267"/>
+      <c r="I41" s="267"/>
+      <c r="J41" s="267"/>
+      <c r="K41" s="267"/>
+      <c r="L41" s="267"/>
+      <c r="M41" s="267"/>
+      <c r="N41" s="267"/>
+      <c r="O41" s="267"/>
+      <c r="P41" s="267" t="str">
         <f t="shared" ref="P41" si="12">IF(COUNT(Q41:R41),Q41-R41,"")</f>
         <v/>
       </c>
-      <c r="Q41" s="266"/>
-      <c r="R41" s="266"/>
+      <c r="Q41" s="267"/>
+      <c r="R41" s="267"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="266"/>
-      <c r="B42" s="266"/>
-      <c r="C42" s="266"/>
-      <c r="D42" s="266"/>
-      <c r="E42" s="266"/>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="266"/>
-      <c r="Q42" s="266"/>
-      <c r="R42" s="266"/>
+      <c r="A42" s="267"/>
+      <c r="B42" s="267"/>
+      <c r="C42" s="267"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="267"/>
+      <c r="F42" s="267"/>
+      <c r="G42" s="267"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="267"/>
+      <c r="J42" s="267"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="267"/>
+      <c r="M42" s="267"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="267"/>
+      <c r="P42" s="267"/>
+      <c r="Q42" s="267"/>
+      <c r="R42" s="267"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="266"/>
-      <c r="B43" s="266"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="266"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="266"/>
-      <c r="N43" s="266"/>
-      <c r="O43" s="266"/>
-      <c r="P43" s="266"/>
-      <c r="Q43" s="266"/>
-      <c r="R43" s="266"/>
+      <c r="A43" s="267"/>
+      <c r="B43" s="267"/>
+      <c r="C43" s="267"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="267"/>
+      <c r="G43" s="267"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="267"/>
+      <c r="K43" s="267"/>
+      <c r="L43" s="267"/>
+      <c r="M43" s="267"/>
+      <c r="N43" s="267"/>
+      <c r="O43" s="267"/>
+      <c r="P43" s="267"/>
+      <c r="Q43" s="267"/>
+      <c r="R43" s="267"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="266"/>
-      <c r="B44" s="266"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
-      <c r="H44" s="266"/>
-      <c r="I44" s="266"/>
-      <c r="J44" s="266"/>
-      <c r="K44" s="266"/>
-      <c r="L44" s="266"/>
-      <c r="M44" s="266"/>
-      <c r="N44" s="266"/>
-      <c r="O44" s="266"/>
-      <c r="P44" s="266" t="str">
+      <c r="A44" s="267"/>
+      <c r="B44" s="267"/>
+      <c r="C44" s="267"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="267"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="267"/>
+      <c r="I44" s="267"/>
+      <c r="J44" s="267"/>
+      <c r="K44" s="267"/>
+      <c r="L44" s="267"/>
+      <c r="M44" s="267"/>
+      <c r="N44" s="267"/>
+      <c r="O44" s="267"/>
+      <c r="P44" s="267" t="str">
         <f t="shared" ref="P44" si="13">IF(COUNT(Q44:R44),Q44-R44,"")</f>
         <v/>
       </c>
-      <c r="Q44" s="266"/>
-      <c r="R44" s="266"/>
+      <c r="Q44" s="267"/>
+      <c r="R44" s="267"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="266"/>
-      <c r="B45" s="266"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="266"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="266"/>
-      <c r="H45" s="266"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="266"/>
-      <c r="K45" s="266"/>
-      <c r="L45" s="266"/>
-      <c r="M45" s="266"/>
-      <c r="N45" s="266"/>
-      <c r="O45" s="266"/>
-      <c r="P45" s="266"/>
-      <c r="Q45" s="266"/>
-      <c r="R45" s="266"/>
+      <c r="A45" s="267"/>
+      <c r="B45" s="267"/>
+      <c r="C45" s="267"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="267"/>
+      <c r="G45" s="267"/>
+      <c r="H45" s="267"/>
+      <c r="I45" s="267"/>
+      <c r="J45" s="267"/>
+      <c r="K45" s="267"/>
+      <c r="L45" s="267"/>
+      <c r="M45" s="267"/>
+      <c r="N45" s="267"/>
+      <c r="O45" s="267"/>
+      <c r="P45" s="267"/>
+      <c r="Q45" s="267"/>
+      <c r="R45" s="267"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="266"/>
-      <c r="B46" s="266"/>
-      <c r="C46" s="266"/>
-      <c r="D46" s="266"/>
-      <c r="E46" s="266"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="266"/>
-      <c r="H46" s="266"/>
-      <c r="I46" s="266"/>
-      <c r="J46" s="266"/>
-      <c r="K46" s="266"/>
-      <c r="L46" s="266"/>
-      <c r="M46" s="266"/>
-      <c r="N46" s="266"/>
-      <c r="O46" s="266"/>
-      <c r="P46" s="266"/>
-      <c r="Q46" s="266"/>
-      <c r="R46" s="266"/>
+      <c r="A46" s="267"/>
+      <c r="B46" s="267"/>
+      <c r="C46" s="267"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="267"/>
+      <c r="F46" s="267"/>
+      <c r="G46" s="267"/>
+      <c r="H46" s="267"/>
+      <c r="I46" s="267"/>
+      <c r="J46" s="267"/>
+      <c r="K46" s="267"/>
+      <c r="L46" s="267"/>
+      <c r="M46" s="267"/>
+      <c r="N46" s="267"/>
+      <c r="O46" s="267"/>
+      <c r="P46" s="267"/>
+      <c r="Q46" s="267"/>
+      <c r="R46" s="267"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="266"/>
-      <c r="B47" s="266"/>
-      <c r="C47" s="266"/>
-      <c r="D47" s="266"/>
-      <c r="E47" s="266"/>
-      <c r="F47" s="266"/>
-      <c r="G47" s="266"/>
-      <c r="H47" s="266"/>
-      <c r="I47" s="266"/>
-      <c r="J47" s="266"/>
-      <c r="K47" s="266"/>
-      <c r="L47" s="266"/>
-      <c r="M47" s="266"/>
-      <c r="N47" s="266"/>
-      <c r="O47" s="266"/>
-      <c r="P47" s="266" t="str">
+      <c r="A47" s="267"/>
+      <c r="B47" s="267"/>
+      <c r="C47" s="267"/>
+      <c r="D47" s="267"/>
+      <c r="E47" s="267"/>
+      <c r="F47" s="267"/>
+      <c r="G47" s="267"/>
+      <c r="H47" s="267"/>
+      <c r="I47" s="267"/>
+      <c r="J47" s="267"/>
+      <c r="K47" s="267"/>
+      <c r="L47" s="267"/>
+      <c r="M47" s="267"/>
+      <c r="N47" s="267"/>
+      <c r="O47" s="267"/>
+      <c r="P47" s="267" t="str">
         <f t="shared" ref="P47" si="14">IF(COUNT(Q47:R47),Q47-R47,"")</f>
         <v/>
       </c>
-      <c r="Q47" s="266"/>
-      <c r="R47" s="266"/>
+      <c r="Q47" s="267"/>
+      <c r="R47" s="267"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="266"/>
-      <c r="B48" s="266"/>
-      <c r="C48" s="266"/>
-      <c r="D48" s="266"/>
-      <c r="E48" s="266"/>
-      <c r="F48" s="266"/>
-      <c r="G48" s="266"/>
-      <c r="H48" s="266"/>
-      <c r="I48" s="266"/>
-      <c r="J48" s="266"/>
-      <c r="K48" s="266"/>
-      <c r="L48" s="266"/>
-      <c r="M48" s="266"/>
-      <c r="N48" s="266"/>
-      <c r="O48" s="266"/>
-      <c r="P48" s="266"/>
-      <c r="Q48" s="266"/>
-      <c r="R48" s="266"/>
+      <c r="A48" s="267"/>
+      <c r="B48" s="267"/>
+      <c r="C48" s="267"/>
+      <c r="D48" s="267"/>
+      <c r="E48" s="267"/>
+      <c r="F48" s="267"/>
+      <c r="G48" s="267"/>
+      <c r="H48" s="267"/>
+      <c r="I48" s="267"/>
+      <c r="J48" s="267"/>
+      <c r="K48" s="267"/>
+      <c r="L48" s="267"/>
+      <c r="M48" s="267"/>
+      <c r="N48" s="267"/>
+      <c r="O48" s="267"/>
+      <c r="P48" s="267"/>
+      <c r="Q48" s="267"/>
+      <c r="R48" s="267"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="266"/>
-      <c r="B49" s="266"/>
-      <c r="C49" s="266"/>
-      <c r="D49" s="266"/>
-      <c r="E49" s="266"/>
-      <c r="F49" s="266"/>
-      <c r="G49" s="266"/>
-      <c r="H49" s="266"/>
-      <c r="I49" s="266"/>
-      <c r="J49" s="266"/>
-      <c r="K49" s="266"/>
-      <c r="L49" s="266"/>
-      <c r="M49" s="266"/>
-      <c r="N49" s="266"/>
-      <c r="O49" s="266"/>
-      <c r="P49" s="266"/>
-      <c r="Q49" s="266"/>
-      <c r="R49" s="266"/>
+      <c r="A49" s="267"/>
+      <c r="B49" s="267"/>
+      <c r="C49" s="267"/>
+      <c r="D49" s="267"/>
+      <c r="E49" s="267"/>
+      <c r="F49" s="267"/>
+      <c r="G49" s="267"/>
+      <c r="H49" s="267"/>
+      <c r="I49" s="267"/>
+      <c r="J49" s="267"/>
+      <c r="K49" s="267"/>
+      <c r="L49" s="267"/>
+      <c r="M49" s="267"/>
+      <c r="N49" s="267"/>
+      <c r="O49" s="267"/>
+      <c r="P49" s="267"/>
+      <c r="Q49" s="267"/>
+      <c r="R49" s="267"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="266"/>
-      <c r="B50" s="266"/>
-      <c r="C50" s="266"/>
-      <c r="D50" s="266"/>
-      <c r="E50" s="266"/>
-      <c r="F50" s="266"/>
-      <c r="G50" s="266"/>
-      <c r="H50" s="266"/>
-      <c r="I50" s="266"/>
-      <c r="J50" s="266"/>
-      <c r="K50" s="266"/>
-      <c r="L50" s="266"/>
-      <c r="M50" s="266"/>
-      <c r="N50" s="266"/>
-      <c r="O50" s="266"/>
-      <c r="P50" s="266" t="str">
+      <c r="A50" s="267"/>
+      <c r="B50" s="267"/>
+      <c r="C50" s="267"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="267"/>
+      <c r="F50" s="267"/>
+      <c r="G50" s="267"/>
+      <c r="H50" s="267"/>
+      <c r="I50" s="267"/>
+      <c r="J50" s="267"/>
+      <c r="K50" s="267"/>
+      <c r="L50" s="267"/>
+      <c r="M50" s="267"/>
+      <c r="N50" s="267"/>
+      <c r="O50" s="267"/>
+      <c r="P50" s="267" t="str">
         <f t="shared" ref="P50" si="15">IF(COUNT(Q50:R50),Q50-R50,"")</f>
         <v/>
       </c>
-      <c r="Q50" s="266"/>
-      <c r="R50" s="266"/>
+      <c r="Q50" s="267"/>
+      <c r="R50" s="267"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="266"/>
-      <c r="B51" s="266"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="266"/>
-      <c r="E51" s="266"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="266"/>
-      <c r="H51" s="266"/>
-      <c r="I51" s="266"/>
-      <c r="J51" s="266"/>
-      <c r="K51" s="266"/>
-      <c r="L51" s="266"/>
-      <c r="M51" s="266"/>
-      <c r="N51" s="266"/>
-      <c r="O51" s="266"/>
-      <c r="P51" s="266"/>
-      <c r="Q51" s="266"/>
-      <c r="R51" s="266"/>
+      <c r="A51" s="267"/>
+      <c r="B51" s="267"/>
+      <c r="C51" s="267"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="267"/>
+      <c r="F51" s="267"/>
+      <c r="G51" s="267"/>
+      <c r="H51" s="267"/>
+      <c r="I51" s="267"/>
+      <c r="J51" s="267"/>
+      <c r="K51" s="267"/>
+      <c r="L51" s="267"/>
+      <c r="M51" s="267"/>
+      <c r="N51" s="267"/>
+      <c r="O51" s="267"/>
+      <c r="P51" s="267"/>
+      <c r="Q51" s="267"/>
+      <c r="R51" s="267"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="266"/>
-      <c r="B52" s="266"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="266"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="266"/>
-      <c r="H52" s="266"/>
-      <c r="I52" s="266"/>
-      <c r="J52" s="266"/>
-      <c r="K52" s="266"/>
-      <c r="L52" s="266"/>
-      <c r="M52" s="266"/>
-      <c r="N52" s="266"/>
-      <c r="O52" s="266"/>
-      <c r="P52" s="266"/>
-      <c r="Q52" s="266"/>
-      <c r="R52" s="266"/>
+      <c r="A52" s="267"/>
+      <c r="B52" s="267"/>
+      <c r="C52" s="267"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="267"/>
+      <c r="G52" s="267"/>
+      <c r="H52" s="267"/>
+      <c r="I52" s="267"/>
+      <c r="J52" s="267"/>
+      <c r="K52" s="267"/>
+      <c r="L52" s="267"/>
+      <c r="M52" s="267"/>
+      <c r="N52" s="267"/>
+      <c r="O52" s="267"/>
+      <c r="P52" s="267"/>
+      <c r="Q52" s="267"/>
+      <c r="R52" s="267"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="266"/>
-      <c r="B53" s="266"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="266"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="266"/>
-      <c r="H53" s="266"/>
-      <c r="I53" s="266"/>
-      <c r="J53" s="266"/>
-      <c r="K53" s="266"/>
-      <c r="L53" s="266"/>
-      <c r="M53" s="266"/>
-      <c r="N53" s="266"/>
-      <c r="O53" s="266"/>
-      <c r="P53" s="266" t="str">
+      <c r="A53" s="267"/>
+      <c r="B53" s="267"/>
+      <c r="C53" s="267"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="267"/>
+      <c r="F53" s="267"/>
+      <c r="G53" s="267"/>
+      <c r="H53" s="267"/>
+      <c r="I53" s="267"/>
+      <c r="J53" s="267"/>
+      <c r="K53" s="267"/>
+      <c r="L53" s="267"/>
+      <c r="M53" s="267"/>
+      <c r="N53" s="267"/>
+      <c r="O53" s="267"/>
+      <c r="P53" s="267" t="str">
         <f t="shared" ref="P53" si="16">IF(COUNT(Q53:R53),Q53-R53,"")</f>
         <v/>
       </c>
-      <c r="Q53" s="266"/>
-      <c r="R53" s="266"/>
+      <c r="Q53" s="267"/>
+      <c r="R53" s="267"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="266"/>
-      <c r="B54" s="266"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="266"/>
-      <c r="E54" s="266"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="266"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="266"/>
-      <c r="L54" s="266"/>
-      <c r="M54" s="266"/>
-      <c r="N54" s="266"/>
-      <c r="O54" s="266"/>
-      <c r="P54" s="266"/>
-      <c r="Q54" s="266"/>
-      <c r="R54" s="266"/>
+      <c r="A54" s="267"/>
+      <c r="B54" s="267"/>
+      <c r="C54" s="267"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="267"/>
+      <c r="F54" s="267"/>
+      <c r="G54" s="267"/>
+      <c r="H54" s="267"/>
+      <c r="I54" s="267"/>
+      <c r="J54" s="267"/>
+      <c r="K54" s="267"/>
+      <c r="L54" s="267"/>
+      <c r="M54" s="267"/>
+      <c r="N54" s="267"/>
+      <c r="O54" s="267"/>
+      <c r="P54" s="267"/>
+      <c r="Q54" s="267"/>
+      <c r="R54" s="267"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="266"/>
-      <c r="B55" s="266"/>
-      <c r="C55" s="266"/>
-      <c r="D55" s="266"/>
-      <c r="E55" s="266"/>
-      <c r="F55" s="266"/>
-      <c r="G55" s="266"/>
-      <c r="H55" s="266"/>
-      <c r="I55" s="266"/>
-      <c r="J55" s="266"/>
-      <c r="K55" s="266"/>
-      <c r="L55" s="266"/>
-      <c r="M55" s="266"/>
-      <c r="N55" s="266"/>
-      <c r="O55" s="266"/>
-      <c r="P55" s="266"/>
-      <c r="Q55" s="266"/>
-      <c r="R55" s="266"/>
+      <c r="A55" s="267"/>
+      <c r="B55" s="267"/>
+      <c r="C55" s="267"/>
+      <c r="D55" s="267"/>
+      <c r="E55" s="267"/>
+      <c r="F55" s="267"/>
+      <c r="G55" s="267"/>
+      <c r="H55" s="267"/>
+      <c r="I55" s="267"/>
+      <c r="J55" s="267"/>
+      <c r="K55" s="267"/>
+      <c r="L55" s="267"/>
+      <c r="M55" s="267"/>
+      <c r="N55" s="267"/>
+      <c r="O55" s="267"/>
+      <c r="P55" s="267"/>
+      <c r="Q55" s="267"/>
+      <c r="R55" s="267"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="266"/>
-      <c r="B56" s="266"/>
-      <c r="C56" s="266"/>
-      <c r="D56" s="266"/>
-      <c r="E56" s="266"/>
-      <c r="F56" s="266"/>
-      <c r="G56" s="266"/>
-      <c r="H56" s="266"/>
-      <c r="I56" s="266"/>
-      <c r="J56" s="266"/>
-      <c r="K56" s="266"/>
-      <c r="L56" s="266"/>
-      <c r="M56" s="266"/>
-      <c r="N56" s="266"/>
-      <c r="O56" s="266"/>
-      <c r="P56" s="266" t="str">
+      <c r="A56" s="267"/>
+      <c r="B56" s="267"/>
+      <c r="C56" s="267"/>
+      <c r="D56" s="267"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
+      <c r="H56" s="267"/>
+      <c r="I56" s="267"/>
+      <c r="J56" s="267"/>
+      <c r="K56" s="267"/>
+      <c r="L56" s="267"/>
+      <c r="M56" s="267"/>
+      <c r="N56" s="267"/>
+      <c r="O56" s="267"/>
+      <c r="P56" s="267" t="str">
         <f t="shared" ref="P56" si="17">IF(COUNT(Q56:R56),Q56-R56,"")</f>
         <v/>
       </c>
-      <c r="Q56" s="266"/>
-      <c r="R56" s="266"/>
+      <c r="Q56" s="267"/>
+      <c r="R56" s="267"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="266"/>
-      <c r="B57" s="266"/>
-      <c r="C57" s="266"/>
-      <c r="D57" s="266"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
-      <c r="G57" s="266"/>
-      <c r="H57" s="266"/>
-      <c r="I57" s="266"/>
-      <c r="J57" s="266"/>
-      <c r="K57" s="266"/>
-      <c r="L57" s="266"/>
-      <c r="M57" s="266"/>
-      <c r="N57" s="266"/>
-      <c r="O57" s="266"/>
-      <c r="P57" s="266"/>
-      <c r="Q57" s="266"/>
-      <c r="R57" s="266"/>
+      <c r="A57" s="267"/>
+      <c r="B57" s="267"/>
+      <c r="C57" s="267"/>
+      <c r="D57" s="267"/>
+      <c r="E57" s="267"/>
+      <c r="F57" s="267"/>
+      <c r="G57" s="267"/>
+      <c r="H57" s="267"/>
+      <c r="I57" s="267"/>
+      <c r="J57" s="267"/>
+      <c r="K57" s="267"/>
+      <c r="L57" s="267"/>
+      <c r="M57" s="267"/>
+      <c r="N57" s="267"/>
+      <c r="O57" s="267"/>
+      <c r="P57" s="267"/>
+      <c r="Q57" s="267"/>
+      <c r="R57" s="267"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="266"/>
-      <c r="B58" s="266"/>
-      <c r="C58" s="266"/>
-      <c r="D58" s="266"/>
-      <c r="E58" s="266"/>
-      <c r="F58" s="266"/>
-      <c r="G58" s="266"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="266"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="266"/>
-      <c r="L58" s="266"/>
-      <c r="M58" s="266"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="266"/>
-      <c r="P58" s="266"/>
-      <c r="Q58" s="266"/>
-      <c r="R58" s="266"/>
+      <c r="A58" s="267"/>
+      <c r="B58" s="267"/>
+      <c r="C58" s="267"/>
+      <c r="D58" s="267"/>
+      <c r="E58" s="267"/>
+      <c r="F58" s="267"/>
+      <c r="G58" s="267"/>
+      <c r="H58" s="267"/>
+      <c r="I58" s="267"/>
+      <c r="J58" s="267"/>
+      <c r="K58" s="267"/>
+      <c r="L58" s="267"/>
+      <c r="M58" s="267"/>
+      <c r="N58" s="267"/>
+      <c r="O58" s="267"/>
+      <c r="P58" s="267"/>
+      <c r="Q58" s="267"/>
+      <c r="R58" s="267"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="266"/>
-      <c r="B59" s="266"/>
-      <c r="C59" s="266"/>
-      <c r="D59" s="266"/>
-      <c r="E59" s="266"/>
-      <c r="F59" s="266"/>
-      <c r="G59" s="266"/>
-      <c r="H59" s="266"/>
-      <c r="I59" s="266"/>
-      <c r="J59" s="266"/>
-      <c r="K59" s="266"/>
-      <c r="L59" s="266"/>
-      <c r="M59" s="266"/>
-      <c r="N59" s="266"/>
-      <c r="O59" s="266"/>
-      <c r="P59" s="266" t="str">
+      <c r="A59" s="267"/>
+      <c r="B59" s="267"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="267"/>
+      <c r="E59" s="267"/>
+      <c r="F59" s="267"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="267"/>
+      <c r="K59" s="267"/>
+      <c r="L59" s="267"/>
+      <c r="M59" s="267"/>
+      <c r="N59" s="267"/>
+      <c r="O59" s="267"/>
+      <c r="P59" s="267" t="str">
         <f t="shared" ref="P59" si="18">IF(COUNT(Q59:R59),Q59-R59,"")</f>
         <v/>
       </c>
-      <c r="Q59" s="266"/>
-      <c r="R59" s="266"/>
+      <c r="Q59" s="267"/>
+      <c r="R59" s="267"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="266"/>
-      <c r="B60" s="266"/>
-      <c r="C60" s="266"/>
-      <c r="D60" s="266"/>
-      <c r="E60" s="266"/>
-      <c r="F60" s="266"/>
-      <c r="G60" s="266"/>
-      <c r="H60" s="266"/>
-      <c r="I60" s="266"/>
-      <c r="J60" s="266"/>
-      <c r="K60" s="266"/>
-      <c r="L60" s="266"/>
-      <c r="M60" s="266"/>
-      <c r="N60" s="266"/>
-      <c r="O60" s="266"/>
-      <c r="P60" s="266"/>
-      <c r="Q60" s="266"/>
-      <c r="R60" s="266"/>
+      <c r="A60" s="267"/>
+      <c r="B60" s="267"/>
+      <c r="C60" s="267"/>
+      <c r="D60" s="267"/>
+      <c r="E60" s="267"/>
+      <c r="F60" s="267"/>
+      <c r="G60" s="267"/>
+      <c r="H60" s="267"/>
+      <c r="I60" s="267"/>
+      <c r="J60" s="267"/>
+      <c r="K60" s="267"/>
+      <c r="L60" s="267"/>
+      <c r="M60" s="267"/>
+      <c r="N60" s="267"/>
+      <c r="O60" s="267"/>
+      <c r="P60" s="267"/>
+      <c r="Q60" s="267"/>
+      <c r="R60" s="267"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="266"/>
-      <c r="B61" s="266"/>
-      <c r="C61" s="266"/>
-      <c r="D61" s="266"/>
-      <c r="E61" s="266"/>
-      <c r="F61" s="266"/>
-      <c r="G61" s="266"/>
-      <c r="H61" s="266"/>
-      <c r="I61" s="266"/>
-      <c r="J61" s="266"/>
-      <c r="K61" s="266"/>
-      <c r="L61" s="266"/>
-      <c r="M61" s="266"/>
-      <c r="N61" s="266"/>
-      <c r="O61" s="266"/>
-      <c r="P61" s="266"/>
-      <c r="Q61" s="266"/>
-      <c r="R61" s="266"/>
+      <c r="A61" s="267"/>
+      <c r="B61" s="267"/>
+      <c r="C61" s="267"/>
+      <c r="D61" s="267"/>
+      <c r="E61" s="267"/>
+      <c r="F61" s="267"/>
+      <c r="G61" s="267"/>
+      <c r="H61" s="267"/>
+      <c r="I61" s="267"/>
+      <c r="J61" s="267"/>
+      <c r="K61" s="267"/>
+      <c r="L61" s="267"/>
+      <c r="M61" s="267"/>
+      <c r="N61" s="267"/>
+      <c r="O61" s="267"/>
+      <c r="P61" s="267"/>
+      <c r="Q61" s="267"/>
+      <c r="R61" s="267"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="266"/>
-      <c r="B62" s="266"/>
-      <c r="C62" s="266"/>
-      <c r="D62" s="266"/>
-      <c r="E62" s="266"/>
-      <c r="F62" s="266"/>
-      <c r="G62" s="266"/>
-      <c r="H62" s="266"/>
-      <c r="I62" s="266"/>
-      <c r="J62" s="266"/>
-      <c r="K62" s="266"/>
-      <c r="L62" s="266"/>
-      <c r="M62" s="266"/>
-      <c r="N62" s="266"/>
-      <c r="O62" s="266"/>
-      <c r="P62" s="266" t="str">
+      <c r="A62" s="267"/>
+      <c r="B62" s="267"/>
+      <c r="C62" s="267"/>
+      <c r="D62" s="267"/>
+      <c r="E62" s="267"/>
+      <c r="F62" s="267"/>
+      <c r="G62" s="267"/>
+      <c r="H62" s="267"/>
+      <c r="I62" s="267"/>
+      <c r="J62" s="267"/>
+      <c r="K62" s="267"/>
+      <c r="L62" s="267"/>
+      <c r="M62" s="267"/>
+      <c r="N62" s="267"/>
+      <c r="O62" s="267"/>
+      <c r="P62" s="267" t="str">
         <f t="shared" ref="P62" si="19">IF(COUNT(Q62:R62),Q62-R62,"")</f>
         <v/>
       </c>
-      <c r="Q62" s="266"/>
-      <c r="R62" s="266"/>
+      <c r="Q62" s="267"/>
+      <c r="R62" s="267"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="266"/>
-      <c r="B63" s="266"/>
-      <c r="C63" s="266"/>
-      <c r="D63" s="266"/>
-      <c r="E63" s="266"/>
-      <c r="F63" s="266"/>
-      <c r="G63" s="266"/>
-      <c r="H63" s="266"/>
-      <c r="I63" s="266"/>
-      <c r="J63" s="266"/>
-      <c r="K63" s="266"/>
-      <c r="L63" s="266"/>
-      <c r="M63" s="266"/>
-      <c r="N63" s="266"/>
-      <c r="O63" s="266"/>
-      <c r="P63" s="266"/>
-      <c r="Q63" s="266"/>
-      <c r="R63" s="266"/>
+      <c r="A63" s="267"/>
+      <c r="B63" s="267"/>
+      <c r="C63" s="267"/>
+      <c r="D63" s="267"/>
+      <c r="E63" s="267"/>
+      <c r="F63" s="267"/>
+      <c r="G63" s="267"/>
+      <c r="H63" s="267"/>
+      <c r="I63" s="267"/>
+      <c r="J63" s="267"/>
+      <c r="K63" s="267"/>
+      <c r="L63" s="267"/>
+      <c r="M63" s="267"/>
+      <c r="N63" s="267"/>
+      <c r="O63" s="267"/>
+      <c r="P63" s="267"/>
+      <c r="Q63" s="267"/>
+      <c r="R63" s="267"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="266"/>
-      <c r="B64" s="266"/>
-      <c r="C64" s="266"/>
-      <c r="D64" s="266"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
-      <c r="G64" s="266"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="266"/>
-      <c r="J64" s="266"/>
-      <c r="K64" s="266"/>
-      <c r="L64" s="266"/>
-      <c r="M64" s="266"/>
-      <c r="N64" s="266"/>
-      <c r="O64" s="266"/>
-      <c r="P64" s="266"/>
-      <c r="Q64" s="266"/>
-      <c r="R64" s="266"/>
+      <c r="A64" s="267"/>
+      <c r="B64" s="267"/>
+      <c r="C64" s="267"/>
+      <c r="D64" s="267"/>
+      <c r="E64" s="267"/>
+      <c r="F64" s="267"/>
+      <c r="G64" s="267"/>
+      <c r="H64" s="267"/>
+      <c r="I64" s="267"/>
+      <c r="J64" s="267"/>
+      <c r="K64" s="267"/>
+      <c r="L64" s="267"/>
+      <c r="M64" s="267"/>
+      <c r="N64" s="267"/>
+      <c r="O64" s="267"/>
+      <c r="P64" s="267"/>
+      <c r="Q64" s="267"/>
+      <c r="R64" s="267"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="266"/>
-      <c r="B65" s="266"/>
-      <c r="C65" s="266"/>
-      <c r="D65" s="266"/>
-      <c r="E65" s="266"/>
-      <c r="F65" s="266"/>
-      <c r="G65" s="266"/>
-      <c r="H65" s="266"/>
-      <c r="I65" s="266"/>
-      <c r="J65" s="266"/>
-      <c r="K65" s="266"/>
-      <c r="L65" s="266"/>
-      <c r="M65" s="266"/>
-      <c r="N65" s="266"/>
-      <c r="O65" s="266"/>
-      <c r="P65" s="266" t="str">
+      <c r="A65" s="267"/>
+      <c r="B65" s="267"/>
+      <c r="C65" s="267"/>
+      <c r="D65" s="267"/>
+      <c r="E65" s="267"/>
+      <c r="F65" s="267"/>
+      <c r="G65" s="267"/>
+      <c r="H65" s="267"/>
+      <c r="I65" s="267"/>
+      <c r="J65" s="267"/>
+      <c r="K65" s="267"/>
+      <c r="L65" s="267"/>
+      <c r="M65" s="267"/>
+      <c r="N65" s="267"/>
+      <c r="O65" s="267"/>
+      <c r="P65" s="267" t="str">
         <f t="shared" ref="P65" si="20">IF(COUNT(Q65:R65),Q65-R65,"")</f>
         <v/>
       </c>
-      <c r="Q65" s="266"/>
-      <c r="R65" s="266"/>
+      <c r="Q65" s="267"/>
+      <c r="R65" s="267"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="266"/>
-      <c r="B66" s="266"/>
-      <c r="C66" s="266"/>
-      <c r="D66" s="266"/>
-      <c r="E66" s="266"/>
-      <c r="F66" s="266"/>
-      <c r="G66" s="266"/>
-      <c r="H66" s="266"/>
-      <c r="I66" s="266"/>
-      <c r="J66" s="266"/>
-      <c r="K66" s="266"/>
-      <c r="L66" s="266"/>
-      <c r="M66" s="266"/>
-      <c r="N66" s="266"/>
-      <c r="O66" s="266"/>
-      <c r="P66" s="266"/>
-      <c r="Q66" s="266"/>
-      <c r="R66" s="266"/>
+      <c r="A66" s="267"/>
+      <c r="B66" s="267"/>
+      <c r="C66" s="267"/>
+      <c r="D66" s="267"/>
+      <c r="E66" s="267"/>
+      <c r="F66" s="267"/>
+      <c r="G66" s="267"/>
+      <c r="H66" s="267"/>
+      <c r="I66" s="267"/>
+      <c r="J66" s="267"/>
+      <c r="K66" s="267"/>
+      <c r="L66" s="267"/>
+      <c r="M66" s="267"/>
+      <c r="N66" s="267"/>
+      <c r="O66" s="267"/>
+      <c r="P66" s="267"/>
+      <c r="Q66" s="267"/>
+      <c r="R66" s="267"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="266"/>
-      <c r="B67" s="266"/>
-      <c r="C67" s="266"/>
-      <c r="D67" s="266"/>
-      <c r="E67" s="266"/>
-      <c r="F67" s="266"/>
-      <c r="G67" s="266"/>
-      <c r="H67" s="266"/>
-      <c r="I67" s="266"/>
-      <c r="J67" s="266"/>
-      <c r="K67" s="266"/>
-      <c r="L67" s="266"/>
-      <c r="M67" s="266"/>
-      <c r="N67" s="266"/>
-      <c r="O67" s="266"/>
-      <c r="P67" s="266"/>
-      <c r="Q67" s="266"/>
-      <c r="R67" s="266"/>
+      <c r="A67" s="267"/>
+      <c r="B67" s="267"/>
+      <c r="C67" s="267"/>
+      <c r="D67" s="267"/>
+      <c r="E67" s="267"/>
+      <c r="F67" s="267"/>
+      <c r="G67" s="267"/>
+      <c r="H67" s="267"/>
+      <c r="I67" s="267"/>
+      <c r="J67" s="267"/>
+      <c r="K67" s="267"/>
+      <c r="L67" s="267"/>
+      <c r="M67" s="267"/>
+      <c r="N67" s="267"/>
+      <c r="O67" s="267"/>
+      <c r="P67" s="267"/>
+      <c r="Q67" s="267"/>
+      <c r="R67" s="267"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="266"/>
-      <c r="B68" s="266"/>
-      <c r="C68" s="266"/>
-      <c r="D68" s="266"/>
-      <c r="E68" s="266"/>
-      <c r="F68" s="266"/>
-      <c r="G68" s="266"/>
-      <c r="H68" s="266"/>
-      <c r="I68" s="266"/>
-      <c r="J68" s="266"/>
-      <c r="K68" s="266"/>
-      <c r="L68" s="266"/>
-      <c r="M68" s="266"/>
-      <c r="N68" s="266"/>
-      <c r="O68" s="266"/>
-      <c r="P68" s="266" t="str">
+      <c r="A68" s="267"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="267"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="267"/>
+      <c r="F68" s="267"/>
+      <c r="G68" s="267"/>
+      <c r="H68" s="267"/>
+      <c r="I68" s="267"/>
+      <c r="J68" s="267"/>
+      <c r="K68" s="267"/>
+      <c r="L68" s="267"/>
+      <c r="M68" s="267"/>
+      <c r="N68" s="267"/>
+      <c r="O68" s="267"/>
+      <c r="P68" s="267" t="str">
         <f t="shared" ref="P68" si="21">IF(COUNT(Q68:R68),Q68-R68,"")</f>
         <v/>
       </c>
-      <c r="Q68" s="266"/>
-      <c r="R68" s="266"/>
+      <c r="Q68" s="267"/>
+      <c r="R68" s="267"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="266"/>
-      <c r="B69" s="266"/>
-      <c r="C69" s="266"/>
-      <c r="D69" s="266"/>
-      <c r="E69" s="266"/>
-      <c r="F69" s="266"/>
-      <c r="G69" s="266"/>
-      <c r="H69" s="266"/>
-      <c r="I69" s="266"/>
-      <c r="J69" s="266"/>
-      <c r="K69" s="266"/>
-      <c r="L69" s="266"/>
-      <c r="M69" s="266"/>
-      <c r="N69" s="266"/>
-      <c r="O69" s="266"/>
-      <c r="P69" s="266"/>
-      <c r="Q69" s="266"/>
-      <c r="R69" s="266"/>
+      <c r="A69" s="267"/>
+      <c r="B69" s="267"/>
+      <c r="C69" s="267"/>
+      <c r="D69" s="267"/>
+      <c r="E69" s="267"/>
+      <c r="F69" s="267"/>
+      <c r="G69" s="267"/>
+      <c r="H69" s="267"/>
+      <c r="I69" s="267"/>
+      <c r="J69" s="267"/>
+      <c r="K69" s="267"/>
+      <c r="L69" s="267"/>
+      <c r="M69" s="267"/>
+      <c r="N69" s="267"/>
+      <c r="O69" s="267"/>
+      <c r="P69" s="267"/>
+      <c r="Q69" s="267"/>
+      <c r="R69" s="267"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="266"/>
-      <c r="B70" s="266"/>
-      <c r="C70" s="266"/>
-      <c r="D70" s="266"/>
-      <c r="E70" s="266"/>
-      <c r="F70" s="266"/>
-      <c r="G70" s="266"/>
-      <c r="H70" s="266"/>
-      <c r="I70" s="266"/>
-      <c r="J70" s="266"/>
-      <c r="K70" s="266"/>
-      <c r="L70" s="266"/>
-      <c r="M70" s="266"/>
-      <c r="N70" s="266"/>
-      <c r="O70" s="266"/>
-      <c r="P70" s="266"/>
-      <c r="Q70" s="266"/>
-      <c r="R70" s="266"/>
+      <c r="A70" s="267"/>
+      <c r="B70" s="267"/>
+      <c r="C70" s="267"/>
+      <c r="D70" s="267"/>
+      <c r="E70" s="267"/>
+      <c r="F70" s="267"/>
+      <c r="G70" s="267"/>
+      <c r="H70" s="267"/>
+      <c r="I70" s="267"/>
+      <c r="J70" s="267"/>
+      <c r="K70" s="267"/>
+      <c r="L70" s="267"/>
+      <c r="M70" s="267"/>
+      <c r="N70" s="267"/>
+      <c r="O70" s="267"/>
+      <c r="P70" s="267"/>
+      <c r="Q70" s="267"/>
+      <c r="R70" s="267"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="266"/>
-      <c r="B71" s="266"/>
-      <c r="C71" s="266"/>
-      <c r="D71" s="266"/>
-      <c r="E71" s="266"/>
-      <c r="F71" s="266"/>
-      <c r="G71" s="266"/>
-      <c r="H71" s="266"/>
-      <c r="I71" s="266"/>
-      <c r="J71" s="266"/>
-      <c r="K71" s="266"/>
-      <c r="L71" s="266"/>
-      <c r="M71" s="266"/>
-      <c r="N71" s="266"/>
-      <c r="O71" s="266"/>
-      <c r="P71" s="266" t="str">
+      <c r="A71" s="267"/>
+      <c r="B71" s="267"/>
+      <c r="C71" s="267"/>
+      <c r="D71" s="267"/>
+      <c r="E71" s="267"/>
+      <c r="F71" s="267"/>
+      <c r="G71" s="267"/>
+      <c r="H71" s="267"/>
+      <c r="I71" s="267"/>
+      <c r="J71" s="267"/>
+      <c r="K71" s="267"/>
+      <c r="L71" s="267"/>
+      <c r="M71" s="267"/>
+      <c r="N71" s="267"/>
+      <c r="O71" s="267"/>
+      <c r="P71" s="267" t="str">
         <f t="shared" ref="P71" si="22">IF(COUNT(Q71:R71),Q71-R71,"")</f>
         <v/>
       </c>
-      <c r="Q71" s="266"/>
-      <c r="R71" s="266"/>
+      <c r="Q71" s="267"/>
+      <c r="R71" s="267"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="266"/>
-      <c r="B72" s="266"/>
-      <c r="C72" s="266"/>
-      <c r="D72" s="266"/>
-      <c r="E72" s="266"/>
-      <c r="F72" s="266"/>
-      <c r="G72" s="266"/>
-      <c r="H72" s="266"/>
-      <c r="I72" s="266"/>
-      <c r="J72" s="266"/>
-      <c r="K72" s="266"/>
-      <c r="L72" s="266"/>
-      <c r="M72" s="266"/>
-      <c r="N72" s="266"/>
-      <c r="O72" s="266"/>
-      <c r="P72" s="266"/>
-      <c r="Q72" s="266"/>
-      <c r="R72" s="266"/>
+      <c r="A72" s="267"/>
+      <c r="B72" s="267"/>
+      <c r="C72" s="267"/>
+      <c r="D72" s="267"/>
+      <c r="E72" s="267"/>
+      <c r="F72" s="267"/>
+      <c r="G72" s="267"/>
+      <c r="H72" s="267"/>
+      <c r="I72" s="267"/>
+      <c r="J72" s="267"/>
+      <c r="K72" s="267"/>
+      <c r="L72" s="267"/>
+      <c r="M72" s="267"/>
+      <c r="N72" s="267"/>
+      <c r="O72" s="267"/>
+      <c r="P72" s="267"/>
+      <c r="Q72" s="267"/>
+      <c r="R72" s="267"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="266"/>
-      <c r="B73" s="266"/>
-      <c r="C73" s="266"/>
-      <c r="D73" s="266"/>
-      <c r="E73" s="266"/>
-      <c r="F73" s="266"/>
-      <c r="G73" s="266"/>
-      <c r="H73" s="266"/>
-      <c r="I73" s="266"/>
-      <c r="J73" s="266"/>
-      <c r="K73" s="266"/>
-      <c r="L73" s="266"/>
-      <c r="M73" s="266"/>
-      <c r="N73" s="266"/>
-      <c r="O73" s="266"/>
-      <c r="P73" s="266"/>
-      <c r="Q73" s="266"/>
-      <c r="R73" s="266"/>
+      <c r="A73" s="267"/>
+      <c r="B73" s="267"/>
+      <c r="C73" s="267"/>
+      <c r="D73" s="267"/>
+      <c r="E73" s="267"/>
+      <c r="F73" s="267"/>
+      <c r="G73" s="267"/>
+      <c r="H73" s="267"/>
+      <c r="I73" s="267"/>
+      <c r="J73" s="267"/>
+      <c r="K73" s="267"/>
+      <c r="L73" s="267"/>
+      <c r="M73" s="267"/>
+      <c r="N73" s="267"/>
+      <c r="O73" s="267"/>
+      <c r="P73" s="267"/>
+      <c r="Q73" s="267"/>
+      <c r="R73" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="432">
@@ -21664,13 +21671,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -21704,7 +21711,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1">
         <v>8</v>
